--- a/util/Resultados - P-R.xlsx
+++ b/util/Resultados - P-R.xlsx
@@ -7,16 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="All courses" sheetId="1" r:id="rId4"/>
-    <sheet name="ID = 58" sheetId="2" r:id="rId5"/>
-    <sheet name="ID = 67" sheetId="3" r:id="rId6"/>
-    <sheet name="ID = 80" sheetId="4" r:id="rId7"/>
-    <sheet name="Summary" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>ID</t>
   </si>
@@ -543,18 +539,6 @@
     <t>Thiago de Albuquerque Souza Medeiros</t>
   </si>
   <si>
-    <t>Algoritmo apontou como AP (Grupo 2):</t>
-  </si>
-  <si>
-    <t>Algoritmo apontou como RP (Grupo 3):</t>
-  </si>
-  <si>
-    <t>Grupo 2 ==&gt; AP?</t>
-  </si>
-  <si>
-    <t>Grupo 3 ==&gt; RP?</t>
-  </si>
-  <si>
     <t>Alessandra Aleluia</t>
   </si>
   <si>
@@ -573,9 +557,6 @@
     <t>Davson Alberto</t>
   </si>
   <si>
-    <t>Diego Jonathan de Souza Silva</t>
-  </si>
-  <si>
     <t>Eduardo José Souza de Lima</t>
   </si>
   <si>
@@ -639,18 +620,6 @@
     <t>Wagner de Oliveira Barros</t>
   </si>
   <si>
-    <t>Algoritmo apontou como AP (Grupo 1):</t>
-  </si>
-  <si>
-    <t>Algoritmo apontou como RP (Grupo 2):</t>
-  </si>
-  <si>
-    <t>Grupo 1 ==&gt; AP?</t>
-  </si>
-  <si>
-    <t>Grupo 2 ==&gt; RP?</t>
-  </si>
-  <si>
     <t>Alexandre Lopes Acioli Olegario'</t>
   </si>
   <si>
@@ -742,25 +711,6 @@
   </si>
   <si>
     <t>igor wilckson</t>
-  </si>
-  <si>
-    <t>Algoritmo apontou como AP (Grupo 3):</t>
-  </si>
-  <si>
-    <t>Grupo 3 ==&gt; AP?</t>
-  </si>
-  <si/>
-  <si>
-    <t>Turma</t>
-  </si>
-  <si>
-    <t>Algoritmo ==&gt; AP</t>
-  </si>
-  <si>
-    <t>Algoritmo ==&gt; RP</t>
-  </si>
-  <si>
-    <t>GREVE</t>
   </si>
 </sst>
 </file>
@@ -770,7 +720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -817,17 +767,11 @@
     <font>
       <b val="1"/>
       <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="16"/>
-      <color indexed="14"/>
+      <color indexed="13"/>
       <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -843,18 +787,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -888,7 +820,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -934,68 +866,11 @@
     <xf numFmtId="1" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,526 +893,10 @@
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffff2c21"/>
       <rgbColor rgb="ff63b2de"/>
-      <rgbColor rgb="ff9ce159"/>
       <rgbColor rgb="ff489bc9"/>
-      <rgbColor rgb="ffb8b8b8"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff51a7f9"/>
-      <rgbColor rgb="ff6fbf40"/>
-      <rgbColor rgb="fff4f4f4"/>
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0733936"/>
-          <c:y val="0.119122"/>
-          <c:w val="0.902747"/>
-          <c:h val="0.760227"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary'!$D$2</c:f>
-              <c:strCache/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="50800" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="51A7F9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="50800" cap="flat">
-                <a:solidFill>
-                  <a:srgbClr val="51A7F9"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Summary'!$B$3:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>154.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary'!$E$2</c:f>
-              <c:strCache/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="50800" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="70BF41"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="50800" cap="flat">
-                <a:solidFill>
-                  <a:srgbClr val="70BF41"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Summary'!$B$3:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary'!$E$3:$E$10</c:f>
-              <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>22.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.583333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.818182</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="0"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1100" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1100" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:rPr>
-                  <a:t>Category Axis</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:ln w="12700" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Helvetica"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="B8B8B8"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="12700" cap="flat">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Helvetica"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="0"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="40"/>
-        <c:minorUnit val="20"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0233276"/>
-          <c:y val="0.005"/>
-          <c:w val="0.954383"/>
-          <c:h val="0.0501176"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>264070</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="289470" y="2737485"/>
-        <a:ext cx="4790530" cy="4051301"/>
-      </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2766,7 +2125,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
@@ -9069,6 +8428,3988 @@
         <f>IF(M137=1,J137,"")</f>
       </c>
     </row>
+    <row r="138" ht="21.35" customHeight="1">
+      <c r="A138" s="13"/>
+      <c r="B138" t="s" s="9">
+        <v>147</v>
+      </c>
+      <c r="C138" s="6">
+        <v>58</v>
+      </c>
+      <c r="D138" s="10">
+        <v>12</v>
+      </c>
+      <c r="E138" s="10">
+        <v>58</v>
+      </c>
+      <c r="F138" s="10">
+        <v>3</v>
+      </c>
+      <c r="G138" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H138" s="8">
+        <f>IF(G138="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I138" s="8">
+        <v>1</v>
+      </c>
+      <c r="J138" s="8">
+        <f>IF(AND(H138,I138),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K138" s="8">
+        <f>IF(I138=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L138" s="8">
+        <f>IF(K138=1,J138,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M138" t="s" s="8">
+        <f>IF(H138=1,1,"")</f>
+      </c>
+      <c r="N138" t="s" s="8">
+        <f>IF(M138=1,J138,"")</f>
+      </c>
+    </row>
+    <row r="139" ht="21.35" customHeight="1">
+      <c r="A139" s="13"/>
+      <c r="B139" t="s" s="9">
+        <v>148</v>
+      </c>
+      <c r="C139" s="6">
+        <v>58</v>
+      </c>
+      <c r="D139" s="10">
+        <v>19</v>
+      </c>
+      <c r="E139" s="10">
+        <v>65</v>
+      </c>
+      <c r="F139" s="10">
+        <v>3</v>
+      </c>
+      <c r="G139" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H139" s="8">
+        <f>IF(G139="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I139" s="8">
+        <v>1</v>
+      </c>
+      <c r="J139" s="8">
+        <f>IF(AND(H139,I139),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K139" s="8">
+        <f>IF(I139=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L139" s="8">
+        <f>IF(K139=1,J139,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M139" s="8">
+        <f>IF(H139=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N139" s="8">
+        <f>IF(M139=1,J139,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="21.35" customHeight="1">
+      <c r="A140" s="13"/>
+      <c r="B140" t="s" s="9">
+        <v>149</v>
+      </c>
+      <c r="C140" s="6">
+        <v>58</v>
+      </c>
+      <c r="D140" s="10">
+        <v>27</v>
+      </c>
+      <c r="E140" s="10">
+        <v>71</v>
+      </c>
+      <c r="F140" s="10">
+        <v>3</v>
+      </c>
+      <c r="G140" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H140" s="8">
+        <f>IF(G140="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I140" s="8">
+        <v>1</v>
+      </c>
+      <c r="J140" s="8">
+        <f>IF(AND(H140,I140),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K140" s="8">
+        <f>IF(I140=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L140" s="8">
+        <f>IF(K140=1,J140,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M140" t="s" s="8">
+        <f>IF(H140=1,1,"")</f>
+      </c>
+      <c r="N140" t="s" s="8">
+        <f>IF(M140=1,J140,"")</f>
+      </c>
+    </row>
+    <row r="141" ht="21.35" customHeight="1">
+      <c r="A141" s="13"/>
+      <c r="B141" t="s" s="6">
+        <v>150</v>
+      </c>
+      <c r="C141" s="6">
+        <v>58</v>
+      </c>
+      <c r="D141" s="7">
+        <v>26</v>
+      </c>
+      <c r="E141" s="7">
+        <v>117</v>
+      </c>
+      <c r="F141" s="7">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H141" s="8">
+        <f>IF(G141="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I141" s="8">
+        <v>0</v>
+      </c>
+      <c r="J141" s="8">
+        <f>IF(AND(H141,I141),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K141" t="s" s="8">
+        <f>IF(I141=1,1,"")</f>
+      </c>
+      <c r="L141" t="s" s="8">
+        <f>IF(K141=1,J141,"")</f>
+      </c>
+      <c r="M141" s="8">
+        <f>IF(H141=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N141" s="8">
+        <f>IF(M141=1,J141,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" ht="21.35" customHeight="1">
+      <c r="A142" s="13"/>
+      <c r="B142" t="s" s="9">
+        <v>151</v>
+      </c>
+      <c r="C142" s="6">
+        <v>58</v>
+      </c>
+      <c r="D142" s="10">
+        <v>29</v>
+      </c>
+      <c r="E142" s="10">
+        <v>71</v>
+      </c>
+      <c r="F142" s="10">
+        <v>3</v>
+      </c>
+      <c r="G142" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H142" s="8">
+        <f>IF(G142="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I142" s="8">
+        <v>1</v>
+      </c>
+      <c r="J142" s="8">
+        <f>IF(AND(H142,I142),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K142" s="8">
+        <f>IF(I142=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L142" s="8">
+        <f>IF(K142=1,J142,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M142" t="s" s="8">
+        <f>IF(H142=1,1,"")</f>
+      </c>
+      <c r="N142" t="s" s="8">
+        <f>IF(M142=1,J142,"")</f>
+      </c>
+    </row>
+    <row r="143" ht="21.35" customHeight="1">
+      <c r="A143" s="13"/>
+      <c r="B143" t="s" s="6">
+        <v>152</v>
+      </c>
+      <c r="C143" s="6">
+        <v>58</v>
+      </c>
+      <c r="D143" s="7">
+        <v>12</v>
+      </c>
+      <c r="E143" s="7">
+        <v>105</v>
+      </c>
+      <c r="F143" s="7">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H143" s="8">
+        <f>IF(G143="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I143" s="8">
+        <v>0</v>
+      </c>
+      <c r="J143" s="8">
+        <f>IF(AND(H143,I143),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K143" t="s" s="8">
+        <f>IF(I143=1,1,"")</f>
+      </c>
+      <c r="L143" t="s" s="8">
+        <f>IF(K143=1,J143,"")</f>
+      </c>
+      <c r="M143" s="8">
+        <f>IF(H143=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N143" s="8">
+        <f>IF(M143=1,J143,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" ht="21.35" customHeight="1">
+      <c r="A144" s="13"/>
+      <c r="B144" t="s" s="9">
+        <v>153</v>
+      </c>
+      <c r="C144" s="6">
+        <v>58</v>
+      </c>
+      <c r="D144" s="10">
+        <v>5</v>
+      </c>
+      <c r="E144" s="10">
+        <v>45</v>
+      </c>
+      <c r="F144" s="10">
+        <v>3</v>
+      </c>
+      <c r="G144" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H144" s="8">
+        <f>IF(G144="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I144" s="8">
+        <v>1</v>
+      </c>
+      <c r="J144" s="8">
+        <f>IF(AND(H144,I144),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K144" s="8">
+        <f>IF(I144=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L144" s="8">
+        <f>IF(K144=1,J144,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M144" t="s" s="8">
+        <f>IF(H144=1,1,"")</f>
+      </c>
+      <c r="N144" t="s" s="8">
+        <f>IF(M144=1,J144,"")</f>
+      </c>
+    </row>
+    <row r="145" ht="21.35" customHeight="1">
+      <c r="A145" s="13"/>
+      <c r="B145" t="s" s="6">
+        <v>154</v>
+      </c>
+      <c r="C145" s="6">
+        <v>58</v>
+      </c>
+      <c r="D145" s="7">
+        <v>24</v>
+      </c>
+      <c r="E145" s="7">
+        <v>80</v>
+      </c>
+      <c r="F145" s="7">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H145" s="8">
+        <f>IF(G145="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I145" s="8">
+        <v>0</v>
+      </c>
+      <c r="J145" s="8">
+        <f>IF(AND(H145,I145),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K145" t="s" s="8">
+        <f>IF(I145=1,1,"")</f>
+      </c>
+      <c r="L145" t="s" s="8">
+        <f>IF(K145=1,J145,"")</f>
+      </c>
+      <c r="M145" t="s" s="8">
+        <f>IF(H145=1,1,"")</f>
+      </c>
+      <c r="N145" t="s" s="8">
+        <f>IF(M145=1,J145,"")</f>
+      </c>
+    </row>
+    <row r="146" ht="21.35" customHeight="1">
+      <c r="A146" s="13"/>
+      <c r="B146" t="s" s="9">
+        <v>155</v>
+      </c>
+      <c r="C146" s="6">
+        <v>58</v>
+      </c>
+      <c r="D146" s="10">
+        <v>10</v>
+      </c>
+      <c r="E146" s="10">
+        <v>39</v>
+      </c>
+      <c r="F146" s="10">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H146" s="8">
+        <f>IF(G146="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I146" s="8">
+        <v>1</v>
+      </c>
+      <c r="J146" s="8">
+        <f>IF(AND(H146,I146),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K146" s="8">
+        <f>IF(I146=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L146" s="8">
+        <f>IF(K146=1,J146,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M146" s="8">
+        <f>IF(H146=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N146" s="8">
+        <f>IF(M146=1,J146,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" ht="21.35" customHeight="1">
+      <c r="A147" s="13"/>
+      <c r="B147" t="s" s="9">
+        <v>156</v>
+      </c>
+      <c r="C147" s="6">
+        <v>58</v>
+      </c>
+      <c r="D147" s="10">
+        <v>6</v>
+      </c>
+      <c r="E147" s="10">
+        <v>19</v>
+      </c>
+      <c r="F147" s="10">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H147" s="8">
+        <f>IF(G147="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I147" s="8">
+        <v>1</v>
+      </c>
+      <c r="J147" s="8">
+        <f>IF(AND(H147,I147),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K147" s="8">
+        <f>IF(I147=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L147" s="8">
+        <f>IF(K147=1,J147,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M147" s="8">
+        <f>IF(H147=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N147" s="8">
+        <f>IF(M147=1,J147,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" ht="21.35" customHeight="1">
+      <c r="A148" s="13"/>
+      <c r="B148" t="s" s="11">
+        <v>157</v>
+      </c>
+      <c r="C148" s="6">
+        <v>58</v>
+      </c>
+      <c r="D148" s="12">
+        <v>49</v>
+      </c>
+      <c r="E148" s="12">
+        <v>223</v>
+      </c>
+      <c r="F148" s="12">
+        <v>2</v>
+      </c>
+      <c r="G148" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H148" s="8">
+        <f>IF(G148="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I148" s="8">
+        <v>0</v>
+      </c>
+      <c r="J148" s="8">
+        <f>IF(AND(H148,I148),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K148" t="s" s="8">
+        <f>IF(I148=1,1,"")</f>
+      </c>
+      <c r="L148" t="s" s="8">
+        <f>IF(K148=1,J148,"")</f>
+      </c>
+      <c r="M148" t="s" s="8">
+        <f>IF(H148=1,1,"")</f>
+      </c>
+      <c r="N148" t="s" s="8">
+        <f>IF(M148=1,J148,"")</f>
+      </c>
+    </row>
+    <row r="149" ht="21.35" customHeight="1">
+      <c r="A149" s="13"/>
+      <c r="B149" t="s" s="6">
+        <v>158</v>
+      </c>
+      <c r="C149" s="6">
+        <v>58</v>
+      </c>
+      <c r="D149" s="7">
+        <v>24</v>
+      </c>
+      <c r="E149" s="7">
+        <v>108</v>
+      </c>
+      <c r="F149" s="7">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H149" s="8">
+        <f>IF(G149="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I149" s="8">
+        <v>0</v>
+      </c>
+      <c r="J149" s="8">
+        <f>IF(AND(H149,I149),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K149" t="s" s="8">
+        <f>IF(I149=1,1,"")</f>
+      </c>
+      <c r="L149" t="s" s="8">
+        <f>IF(K149=1,J149,"")</f>
+      </c>
+      <c r="M149" t="s" s="8">
+        <f>IF(H149=1,1,"")</f>
+      </c>
+      <c r="N149" t="s" s="8">
+        <f>IF(M149=1,J149,"")</f>
+      </c>
+    </row>
+    <row r="150" ht="21.35" customHeight="1">
+      <c r="A150" s="13"/>
+      <c r="B150" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="C150" s="6">
+        <v>58</v>
+      </c>
+      <c r="D150" s="10">
+        <v>7</v>
+      </c>
+      <c r="E150" s="10">
+        <v>18</v>
+      </c>
+      <c r="F150" s="10">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H150" s="8">
+        <f>IF(G150="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I150" s="8">
+        <v>1</v>
+      </c>
+      <c r="J150" s="8">
+        <f>IF(AND(H150,I150),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K150" s="8">
+        <f>IF(I150=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L150" s="8">
+        <f>IF(K150=1,J150,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M150" s="8">
+        <f>IF(H150=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N150" s="8">
+        <f>IF(M150=1,J150,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" ht="21.35" customHeight="1">
+      <c r="A151" s="13"/>
+      <c r="B151" t="s" s="11">
+        <v>160</v>
+      </c>
+      <c r="C151" s="6">
+        <v>58</v>
+      </c>
+      <c r="D151" s="12">
+        <v>23</v>
+      </c>
+      <c r="E151" s="12">
+        <v>155</v>
+      </c>
+      <c r="F151" s="12">
+        <v>2</v>
+      </c>
+      <c r="G151" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H151" s="8">
+        <f>IF(G151="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I151" s="8">
+        <v>0</v>
+      </c>
+      <c r="J151" s="8">
+        <f>IF(AND(H151,I151),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K151" t="s" s="8">
+        <f>IF(I151=1,1,"")</f>
+      </c>
+      <c r="L151" t="s" s="8">
+        <f>IF(K151=1,J151,"")</f>
+      </c>
+      <c r="M151" s="8">
+        <f>IF(H151=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N151" s="8">
+        <f>IF(M151=1,J151,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" ht="21.35" customHeight="1">
+      <c r="A152" s="13"/>
+      <c r="B152" t="s" s="6">
+        <v>161</v>
+      </c>
+      <c r="C152" s="6">
+        <v>58</v>
+      </c>
+      <c r="D152" s="7">
+        <v>23</v>
+      </c>
+      <c r="E152" s="7">
+        <v>82</v>
+      </c>
+      <c r="F152" s="7">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H152" s="8">
+        <f>IF(G152="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I152" s="8">
+        <v>0</v>
+      </c>
+      <c r="J152" s="8">
+        <f>IF(AND(H152,I152),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K152" t="s" s="8">
+        <f>IF(I152=1,1,"")</f>
+      </c>
+      <c r="L152" t="s" s="8">
+        <f>IF(K152=1,J152,"")</f>
+      </c>
+      <c r="M152" s="8">
+        <f>IF(H152=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N152" s="8">
+        <f>IF(M152=1,J152,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" ht="21.35" customHeight="1">
+      <c r="A153" s="13"/>
+      <c r="B153" t="s" s="9">
+        <v>162</v>
+      </c>
+      <c r="C153" s="6">
+        <v>58</v>
+      </c>
+      <c r="D153" s="10">
+        <v>11</v>
+      </c>
+      <c r="E153" s="10">
+        <v>69</v>
+      </c>
+      <c r="F153" s="10">
+        <v>3</v>
+      </c>
+      <c r="G153" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H153" s="8">
+        <f>IF(G153="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I153" s="8">
+        <v>1</v>
+      </c>
+      <c r="J153" s="8">
+        <f>IF(AND(H153,I153),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K153" s="8">
+        <f>IF(I153=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L153" s="8">
+        <f>IF(K153=1,J153,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M153" s="8">
+        <f>IF(H153=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N153" s="8">
+        <f>IF(M153=1,J153,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" ht="21.35" customHeight="1">
+      <c r="A154" s="13"/>
+      <c r="B154" t="s" s="6">
+        <v>163</v>
+      </c>
+      <c r="C154" s="6">
+        <v>58</v>
+      </c>
+      <c r="D154" s="7">
+        <v>33</v>
+      </c>
+      <c r="E154" s="7">
+        <v>121</v>
+      </c>
+      <c r="F154" s="7">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H154" s="8">
+        <f>IF(G154="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I154" s="8">
+        <v>0</v>
+      </c>
+      <c r="J154" s="8">
+        <f>IF(AND(H154,I154),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K154" t="s" s="8">
+        <f>IF(I154=1,1,"")</f>
+      </c>
+      <c r="L154" t="s" s="8">
+        <f>IF(K154=1,J154,"")</f>
+      </c>
+      <c r="M154" t="s" s="8">
+        <f>IF(H154=1,1,"")</f>
+      </c>
+      <c r="N154" t="s" s="8">
+        <f>IF(M154=1,J154,"")</f>
+      </c>
+    </row>
+    <row r="155" ht="21.35" customHeight="1">
+      <c r="A155" s="13"/>
+      <c r="B155" t="s" s="9">
+        <v>164</v>
+      </c>
+      <c r="C155" s="6">
+        <v>58</v>
+      </c>
+      <c r="D155" s="10">
+        <v>7</v>
+      </c>
+      <c r="E155" s="10">
+        <v>34</v>
+      </c>
+      <c r="F155" s="10">
+        <v>3</v>
+      </c>
+      <c r="G155" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H155" s="8">
+        <f>IF(G155="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I155" s="8">
+        <v>1</v>
+      </c>
+      <c r="J155" s="8">
+        <f>IF(AND(H155,I155),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K155" s="8">
+        <f>IF(I155=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L155" s="8">
+        <f>IF(K155=1,J155,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M155" s="8">
+        <f>IF(H155=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N155" s="8">
+        <f>IF(M155=1,J155,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" ht="21.35" customHeight="1">
+      <c r="A156" s="13"/>
+      <c r="B156" t="s" s="6">
+        <v>165</v>
+      </c>
+      <c r="C156" s="6">
+        <v>58</v>
+      </c>
+      <c r="D156" s="7">
+        <v>35</v>
+      </c>
+      <c r="E156" s="7">
+        <v>90</v>
+      </c>
+      <c r="F156" s="7">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H156" s="8">
+        <f>IF(G156="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I156" s="8">
+        <v>0</v>
+      </c>
+      <c r="J156" s="8">
+        <f>IF(AND(H156,I156),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K156" t="s" s="8">
+        <f>IF(I156=1,1,"")</f>
+      </c>
+      <c r="L156" t="s" s="8">
+        <f>IF(K156=1,J156,"")</f>
+      </c>
+      <c r="M156" t="s" s="8">
+        <f>IF(H156=1,1,"")</f>
+      </c>
+      <c r="N156" t="s" s="8">
+        <f>IF(M156=1,J156,"")</f>
+      </c>
+    </row>
+    <row r="157" ht="21.35" customHeight="1">
+      <c r="A157" s="13"/>
+      <c r="B157" t="s" s="9">
+        <v>166</v>
+      </c>
+      <c r="C157" s="6">
+        <v>58</v>
+      </c>
+      <c r="D157" s="10">
+        <v>13</v>
+      </c>
+      <c r="E157" s="10">
+        <v>47</v>
+      </c>
+      <c r="F157" s="10">
+        <v>3</v>
+      </c>
+      <c r="G157" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H157" s="8">
+        <f>IF(G157="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I157" s="8">
+        <v>1</v>
+      </c>
+      <c r="J157" s="8">
+        <f>IF(AND(H157,I157),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K157" s="8">
+        <f>IF(I157=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L157" s="8">
+        <f>IF(K157=1,J157,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M157" t="s" s="8">
+        <f>IF(H157=1,1,"")</f>
+      </c>
+      <c r="N157" t="s" s="8">
+        <f>IF(M157=1,J157,"")</f>
+      </c>
+    </row>
+    <row r="158" ht="21.35" customHeight="1">
+      <c r="A158" s="13"/>
+      <c r="B158" t="s" s="6">
+        <v>167</v>
+      </c>
+      <c r="C158" s="6">
+        <v>58</v>
+      </c>
+      <c r="D158" s="7">
+        <v>28</v>
+      </c>
+      <c r="E158" s="7">
+        <v>88</v>
+      </c>
+      <c r="F158" s="7">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H158" s="8">
+        <f>IF(G158="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I158" s="8">
+        <v>0</v>
+      </c>
+      <c r="J158" s="8">
+        <f>IF(AND(H158,I158),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K158" t="s" s="8">
+        <f>IF(I158=1,1,"")</f>
+      </c>
+      <c r="L158" t="s" s="8">
+        <f>IF(K158=1,J158,"")</f>
+      </c>
+      <c r="M158" s="8">
+        <f>IF(H158=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N158" s="8">
+        <f>IF(M158=1,J158,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" ht="21.35" customHeight="1">
+      <c r="A159" s="13"/>
+      <c r="B159" t="s" s="9">
+        <v>133</v>
+      </c>
+      <c r="C159" s="6">
+        <v>58</v>
+      </c>
+      <c r="D159" s="10">
+        <v>12</v>
+      </c>
+      <c r="E159" s="10">
+        <v>25</v>
+      </c>
+      <c r="F159" s="10">
+        <v>3</v>
+      </c>
+      <c r="G159" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H159" s="8">
+        <f>IF(G159="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I159" s="8">
+        <v>1</v>
+      </c>
+      <c r="J159" s="8">
+        <f>IF(AND(H159,I159),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K159" s="8">
+        <f>IF(I159=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L159" s="8">
+        <f>IF(K159=1,J159,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M159" s="8">
+        <f>IF(H159=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N159" s="8">
+        <f>IF(M159=1,J159,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" ht="21.35" customHeight="1">
+      <c r="A160" s="13"/>
+      <c r="B160" t="s" s="6">
+        <v>168</v>
+      </c>
+      <c r="C160" s="6">
+        <v>58</v>
+      </c>
+      <c r="D160" s="7">
+        <v>37</v>
+      </c>
+      <c r="E160" s="7">
+        <v>138</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H160" s="8">
+        <f>IF(G160="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I160" s="8">
+        <v>0</v>
+      </c>
+      <c r="J160" s="8">
+        <f>IF(AND(H160,I160),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K160" t="s" s="8">
+        <f>IF(I160=1,1,"")</f>
+      </c>
+      <c r="L160" t="s" s="8">
+        <f>IF(K160=1,J160,"")</f>
+      </c>
+      <c r="M160" t="s" s="8">
+        <f>IF(H160=1,1,"")</f>
+      </c>
+      <c r="N160" t="s" s="8">
+        <f>IF(M160=1,J160,"")</f>
+      </c>
+    </row>
+    <row r="161" ht="21.35" customHeight="1">
+      <c r="A161" s="13"/>
+      <c r="B161" t="s" s="6">
+        <v>169</v>
+      </c>
+      <c r="C161" s="6">
+        <v>58</v>
+      </c>
+      <c r="D161" s="7">
+        <v>39</v>
+      </c>
+      <c r="E161" s="7">
+        <v>105</v>
+      </c>
+      <c r="F161" s="7">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H161" s="8">
+        <f>IF(G161="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I161" s="8">
+        <v>0</v>
+      </c>
+      <c r="J161" s="8">
+        <f>IF(AND(H161,I161),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K161" t="s" s="8">
+        <f>IF(I161=1,1,"")</f>
+      </c>
+      <c r="L161" t="s" s="8">
+        <f>IF(K161=1,J161,"")</f>
+      </c>
+      <c r="M161" s="8">
+        <f>IF(H161=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N161" s="8">
+        <f>IF(M161=1,J161,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" ht="21.35" customHeight="1">
+      <c r="A162" s="13"/>
+      <c r="B162" t="s" s="6">
+        <v>170</v>
+      </c>
+      <c r="C162" s="6">
+        <v>58</v>
+      </c>
+      <c r="D162" s="7">
+        <v>49</v>
+      </c>
+      <c r="E162" s="7">
+        <v>109</v>
+      </c>
+      <c r="F162" s="7">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H162" s="8">
+        <f>IF(G162="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I162" s="8">
+        <v>0</v>
+      </c>
+      <c r="J162" s="8">
+        <f>IF(AND(H162,I162),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K162" t="s" s="8">
+        <f>IF(I162=1,1,"")</f>
+      </c>
+      <c r="L162" t="s" s="8">
+        <f>IF(K162=1,J162,"")</f>
+      </c>
+      <c r="M162" t="s" s="8">
+        <f>IF(H162=1,1,"")</f>
+      </c>
+      <c r="N162" t="s" s="8">
+        <f>IF(M162=1,J162,"")</f>
+      </c>
+    </row>
+    <row r="163" ht="21.35" customHeight="1">
+      <c r="A163" s="13"/>
+      <c r="B163" t="s" s="11">
+        <v>171</v>
+      </c>
+      <c r="C163" s="6">
+        <v>58</v>
+      </c>
+      <c r="D163" s="12">
+        <v>40</v>
+      </c>
+      <c r="E163" s="12">
+        <v>197</v>
+      </c>
+      <c r="F163" s="12">
+        <v>2</v>
+      </c>
+      <c r="G163" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H163" s="8">
+        <f>IF(G163="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I163" s="8">
+        <v>0</v>
+      </c>
+      <c r="J163" s="8">
+        <f>IF(AND(H163,I163),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K163" t="s" s="8">
+        <f>IF(I163=1,1,"")</f>
+      </c>
+      <c r="L163" t="s" s="8">
+        <f>IF(K163=1,J163,"")</f>
+      </c>
+      <c r="M163" t="s" s="8">
+        <f>IF(H163=1,1,"")</f>
+      </c>
+      <c r="N163" t="s" s="8">
+        <f>IF(M163=1,J163,"")</f>
+      </c>
+    </row>
+    <row r="164" ht="21.35" customHeight="1">
+      <c r="A164" s="13"/>
+      <c r="B164" t="s" s="9">
+        <v>172</v>
+      </c>
+      <c r="C164" s="6">
+        <v>58</v>
+      </c>
+      <c r="D164" s="10">
+        <v>16</v>
+      </c>
+      <c r="E164" s="10">
+        <v>31</v>
+      </c>
+      <c r="F164" s="10">
+        <v>3</v>
+      </c>
+      <c r="G164" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H164" s="8">
+        <f>IF(G164="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I164" s="8">
+        <v>1</v>
+      </c>
+      <c r="J164" s="8">
+        <f>IF(AND(H164,I164),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K164" s="8">
+        <f>IF(I164=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L164" s="8">
+        <f>IF(K164=1,J164,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M164" s="8">
+        <f>IF(H164=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N164" s="8">
+        <f>IF(M164=1,J164,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" ht="21.35" customHeight="1">
+      <c r="A165" s="13"/>
+      <c r="B165" t="s" s="9">
+        <v>173</v>
+      </c>
+      <c r="C165" s="6">
+        <v>58</v>
+      </c>
+      <c r="D165" s="10">
+        <v>11</v>
+      </c>
+      <c r="E165" s="10">
+        <v>75</v>
+      </c>
+      <c r="F165" s="10">
+        <v>3</v>
+      </c>
+      <c r="G165" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H165" s="8">
+        <f>IF(G165="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I165" s="8">
+        <v>1</v>
+      </c>
+      <c r="J165" s="8">
+        <f>IF(AND(H165,I165),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K165" s="8">
+        <f>IF(I165=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L165" s="8">
+        <f>IF(K165=1,J165,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M165" s="8">
+        <f>IF(H165=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N165" s="8">
+        <f>IF(M165=1,J165,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" ht="21.35" customHeight="1">
+      <c r="A166" s="13"/>
+      <c r="B166" t="s" s="9">
+        <v>174</v>
+      </c>
+      <c r="C166" s="6">
+        <v>58</v>
+      </c>
+      <c r="D166" s="10">
+        <v>8</v>
+      </c>
+      <c r="E166" s="10">
+        <v>63</v>
+      </c>
+      <c r="F166" s="10">
+        <v>3</v>
+      </c>
+      <c r="G166" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H166" s="8">
+        <f>IF(G166="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I166" s="8">
+        <v>1</v>
+      </c>
+      <c r="J166" s="8">
+        <f>IF(AND(H166,I166),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K166" s="8">
+        <f>IF(I166=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L166" s="8">
+        <f>IF(K166=1,J166,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M166" s="8">
+        <f>IF(H166=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N166" s="8">
+        <f>IF(M166=1,J166,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" ht="21.35" customHeight="1">
+      <c r="A167" s="13"/>
+      <c r="B167" t="s" s="9">
+        <v>175</v>
+      </c>
+      <c r="C167" s="6">
+        <v>67</v>
+      </c>
+      <c r="D167" s="10">
+        <v>43</v>
+      </c>
+      <c r="E167" s="10">
+        <v>97</v>
+      </c>
+      <c r="F167" s="10">
+        <v>2</v>
+      </c>
+      <c r="G167" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H167" s="8">
+        <f>IF(G167="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I167" s="8">
+        <v>1</v>
+      </c>
+      <c r="J167" s="8">
+        <f>IF(AND(H167,I167),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K167" s="8">
+        <f>IF(I167=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L167" s="8">
+        <f>IF(K167=1,J167,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M167" t="s" s="8">
+        <f>IF(H167=1,1,"")</f>
+      </c>
+      <c r="N167" t="s" s="8">
+        <f>IF(M167=1,J167,"")</f>
+      </c>
+    </row>
+    <row r="168" ht="21.35" customHeight="1">
+      <c r="A168" s="13"/>
+      <c r="B168" t="s" s="11">
+        <v>176</v>
+      </c>
+      <c r="C168" s="6">
+        <v>67</v>
+      </c>
+      <c r="D168" s="12">
+        <v>85</v>
+      </c>
+      <c r="E168" s="12">
+        <v>352</v>
+      </c>
+      <c r="F168" s="12">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H168" s="8">
+        <f>IF(G168="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I168" s="8">
+        <v>0</v>
+      </c>
+      <c r="J168" s="8">
+        <f>IF(AND(H168,I168),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K168" t="s" s="8">
+        <f>IF(I168=1,1,"")</f>
+      </c>
+      <c r="L168" t="s" s="8">
+        <f>IF(K168=1,J168,"")</f>
+      </c>
+      <c r="M168" t="s" s="8">
+        <f>IF(H168=1,1,"")</f>
+      </c>
+      <c r="N168" t="s" s="8">
+        <f>IF(M168=1,J168,"")</f>
+      </c>
+    </row>
+    <row r="169" ht="21.35" customHeight="1">
+      <c r="A169" s="13"/>
+      <c r="B169" t="s" s="9">
+        <v>177</v>
+      </c>
+      <c r="C169" s="6">
+        <v>67</v>
+      </c>
+      <c r="D169" s="10">
+        <v>2</v>
+      </c>
+      <c r="E169" s="10">
+        <v>6</v>
+      </c>
+      <c r="F169" s="10">
+        <v>2</v>
+      </c>
+      <c r="G169" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H169" s="8">
+        <f>IF(G169="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I169" s="8">
+        <v>1</v>
+      </c>
+      <c r="J169" s="8">
+        <f>IF(AND(H169,I169),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K169" s="8">
+        <f>IF(I169=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L169" s="8">
+        <f>IF(K169=1,J169,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M169" s="8">
+        <f>IF(H169=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N169" s="8">
+        <f>IF(M169=1,J169,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" ht="21.35" customHeight="1">
+      <c r="A170" s="13"/>
+      <c r="B170" t="s" s="6">
+        <v>178</v>
+      </c>
+      <c r="C170" s="6">
+        <v>67</v>
+      </c>
+      <c r="D170" s="7">
+        <v>41</v>
+      </c>
+      <c r="E170" s="7">
+        <v>137</v>
+      </c>
+      <c r="F170" s="7">
+        <v>3</v>
+      </c>
+      <c r="G170" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H170" s="8">
+        <f>IF(G170="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I170" s="8">
+        <v>0</v>
+      </c>
+      <c r="J170" s="8">
+        <f>IF(AND(H170,I170),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K170" t="s" s="8">
+        <f>IF(I170=1,1,"")</f>
+      </c>
+      <c r="L170" t="s" s="8">
+        <f>IF(K170=1,J170,"")</f>
+      </c>
+      <c r="M170" s="8">
+        <f>IF(H170=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N170" s="8">
+        <f>IF(M170=1,J170,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" ht="21.35" customHeight="1">
+      <c r="A171" s="13"/>
+      <c r="B171" t="s" s="9">
+        <v>179</v>
+      </c>
+      <c r="C171" s="6">
+        <v>67</v>
+      </c>
+      <c r="D171" s="10">
+        <v>39</v>
+      </c>
+      <c r="E171" s="10">
+        <v>93</v>
+      </c>
+      <c r="F171" s="10">
+        <v>2</v>
+      </c>
+      <c r="G171" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H171" s="8">
+        <f>IF(G171="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I171" s="8">
+        <v>1</v>
+      </c>
+      <c r="J171" s="8">
+        <f>IF(AND(H171,I171),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K171" s="8">
+        <f>IF(I171=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L171" s="8">
+        <f>IF(K171=1,J171,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M171" s="8">
+        <f>IF(H171=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N171" s="8">
+        <f>IF(M171=1,J171,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" ht="21.35" customHeight="1">
+      <c r="A172" s="13"/>
+      <c r="B172" t="s" s="9">
+        <v>180</v>
+      </c>
+      <c r="C172" s="6">
+        <v>67</v>
+      </c>
+      <c r="D172" s="10">
+        <v>26</v>
+      </c>
+      <c r="E172" s="10">
+        <v>100</v>
+      </c>
+      <c r="F172" s="10">
+        <v>2</v>
+      </c>
+      <c r="G172" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H172" s="8">
+        <f>IF(G172="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I172" s="8">
+        <v>1</v>
+      </c>
+      <c r="J172" s="8">
+        <f>IF(AND(H172,I172),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K172" s="8">
+        <f>IF(I172=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L172" s="8">
+        <f>IF(K172=1,J172,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M172" s="8">
+        <f>IF(H172=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N172" s="8">
+        <f>IF(M172=1,J172,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" ht="21.35" customHeight="1">
+      <c r="A173" s="13"/>
+      <c r="B173" t="s" s="6">
+        <v>181</v>
+      </c>
+      <c r="C173" s="6">
+        <v>67</v>
+      </c>
+      <c r="D173" s="7">
+        <v>38</v>
+      </c>
+      <c r="E173" s="7">
+        <v>159</v>
+      </c>
+      <c r="F173" s="7">
+        <v>3</v>
+      </c>
+      <c r="G173" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H173" s="8">
+        <f>IF(G173="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I173" s="8">
+        <v>0</v>
+      </c>
+      <c r="J173" s="8">
+        <f>IF(AND(H173,I173),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K173" t="s" s="8">
+        <f>IF(I173=1,1,"")</f>
+      </c>
+      <c r="L173" t="s" s="8">
+        <f>IF(K173=1,J173,"")</f>
+      </c>
+      <c r="M173" s="8">
+        <f>IF(H173=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N173" s="8">
+        <f>IF(M173=1,J173,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" ht="21.35" customHeight="1">
+      <c r="A174" s="13"/>
+      <c r="B174" t="s" s="6">
+        <v>182</v>
+      </c>
+      <c r="C174" s="6">
+        <v>67</v>
+      </c>
+      <c r="D174" s="7">
+        <v>63</v>
+      </c>
+      <c r="E174" s="7">
+        <v>208</v>
+      </c>
+      <c r="F174" s="7">
+        <v>3</v>
+      </c>
+      <c r="G174" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H174" s="8">
+        <f>IF(G174="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I174" s="8">
+        <v>0</v>
+      </c>
+      <c r="J174" s="8">
+        <f>IF(AND(H174,I174),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K174" t="s" s="8">
+        <f>IF(I174=1,1,"")</f>
+      </c>
+      <c r="L174" t="s" s="8">
+        <f>IF(K174=1,J174,"")</f>
+      </c>
+      <c r="M174" t="s" s="8">
+        <f>IF(H174=1,1,"")</f>
+      </c>
+      <c r="N174" t="s" s="8">
+        <f>IF(M174=1,J174,"")</f>
+      </c>
+    </row>
+    <row r="175" ht="21.35" customHeight="1">
+      <c r="A175" s="13"/>
+      <c r="B175" t="s" s="9">
+        <v>183</v>
+      </c>
+      <c r="C175" s="6">
+        <v>67</v>
+      </c>
+      <c r="D175" s="10">
+        <v>24</v>
+      </c>
+      <c r="E175" s="10">
+        <v>88</v>
+      </c>
+      <c r="F175" s="10">
+        <v>2</v>
+      </c>
+      <c r="G175" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H175" s="8">
+        <f>IF(G175="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I175" s="8">
+        <v>1</v>
+      </c>
+      <c r="J175" s="8">
+        <f>IF(AND(H175,I175),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K175" s="8">
+        <f>IF(I175=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L175" s="8">
+        <f>IF(K175=1,J175,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M175" s="8">
+        <f>IF(H175=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N175" s="8">
+        <f>IF(M175=1,J175,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" ht="21.35" customHeight="1">
+      <c r="A176" s="13"/>
+      <c r="B176" t="s" s="9">
+        <v>184</v>
+      </c>
+      <c r="C176" s="6">
+        <v>67</v>
+      </c>
+      <c r="D176" s="10">
+        <v>14</v>
+      </c>
+      <c r="E176" s="10">
+        <v>34</v>
+      </c>
+      <c r="F176" s="10">
+        <v>2</v>
+      </c>
+      <c r="G176" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H176" s="8">
+        <f>IF(G176="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I176" s="8">
+        <v>1</v>
+      </c>
+      <c r="J176" s="8">
+        <f>IF(AND(H176,I176),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K176" s="8">
+        <f>IF(I176=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L176" s="8">
+        <f>IF(K176=1,J176,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M176" s="8">
+        <f>IF(H176=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N176" s="8">
+        <f>IF(M176=1,J176,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" ht="21.35" customHeight="1">
+      <c r="A177" s="13"/>
+      <c r="B177" t="s" s="6">
+        <v>185</v>
+      </c>
+      <c r="C177" s="6">
+        <v>67</v>
+      </c>
+      <c r="D177" s="7">
+        <v>57</v>
+      </c>
+      <c r="E177" s="7">
+        <v>143</v>
+      </c>
+      <c r="F177" s="7">
+        <v>3</v>
+      </c>
+      <c r="G177" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H177" s="8">
+        <f>IF(G177="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I177" s="8">
+        <v>0</v>
+      </c>
+      <c r="J177" s="8">
+        <f>IF(AND(H177,I177),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K177" t="s" s="8">
+        <f>IF(I177=1,1,"")</f>
+      </c>
+      <c r="L177" t="s" s="8">
+        <f>IF(K177=1,J177,"")</f>
+      </c>
+      <c r="M177" t="s" s="8">
+        <f>IF(H177=1,1,"")</f>
+      </c>
+      <c r="N177" t="s" s="8">
+        <f>IF(M177=1,J177,"")</f>
+      </c>
+    </row>
+    <row r="178" ht="21.35" customHeight="1">
+      <c r="A178" s="13"/>
+      <c r="B178" t="s" s="6">
+        <v>186</v>
+      </c>
+      <c r="C178" s="6">
+        <v>67</v>
+      </c>
+      <c r="D178" s="7">
+        <v>68</v>
+      </c>
+      <c r="E178" s="7">
+        <v>190</v>
+      </c>
+      <c r="F178" s="7">
+        <v>3</v>
+      </c>
+      <c r="G178" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H178" s="8">
+        <f>IF(G178="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I178" s="8">
+        <v>0</v>
+      </c>
+      <c r="J178" s="8">
+        <f>IF(AND(H178,I178),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K178" t="s" s="8">
+        <f>IF(I178=1,1,"")</f>
+      </c>
+      <c r="L178" t="s" s="8">
+        <f>IF(K178=1,J178,"")</f>
+      </c>
+      <c r="M178" t="s" s="8">
+        <f>IF(H178=1,1,"")</f>
+      </c>
+      <c r="N178" t="s" s="8">
+        <f>IF(M178=1,J178,"")</f>
+      </c>
+    </row>
+    <row r="179" ht="21.35" customHeight="1">
+      <c r="A179" s="13"/>
+      <c r="B179" t="s" s="6">
+        <v>187</v>
+      </c>
+      <c r="C179" s="6">
+        <v>67</v>
+      </c>
+      <c r="D179" s="7">
+        <v>65</v>
+      </c>
+      <c r="E179" s="7">
+        <v>170</v>
+      </c>
+      <c r="F179" s="7">
+        <v>3</v>
+      </c>
+      <c r="G179" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H179" s="8">
+        <f>IF(G179="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I179" s="8">
+        <v>0</v>
+      </c>
+      <c r="J179" s="8">
+        <f>IF(AND(H179,I179),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K179" t="s" s="8">
+        <f>IF(I179=1,1,"")</f>
+      </c>
+      <c r="L179" t="s" s="8">
+        <f>IF(K179=1,J179,"")</f>
+      </c>
+      <c r="M179" t="s" s="8">
+        <f>IF(H179=1,1,"")</f>
+      </c>
+      <c r="N179" t="s" s="8">
+        <f>IF(M179=1,J179,"")</f>
+      </c>
+    </row>
+    <row r="180" ht="21.35" customHeight="1">
+      <c r="A180" s="13"/>
+      <c r="B180" t="s" s="9">
+        <v>188</v>
+      </c>
+      <c r="C180" s="6">
+        <v>67</v>
+      </c>
+      <c r="D180" s="10">
+        <v>37</v>
+      </c>
+      <c r="E180" s="10">
+        <v>67</v>
+      </c>
+      <c r="F180" s="10">
+        <v>2</v>
+      </c>
+      <c r="G180" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H180" s="8">
+        <f>IF(G180="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I180" s="8">
+        <v>1</v>
+      </c>
+      <c r="J180" s="8">
+        <f>IF(AND(H180,I180),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K180" s="8">
+        <f>IF(I180=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L180" s="8">
+        <f>IF(K180=1,J180,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M180" t="s" s="8">
+        <f>IF(H180=1,1,"")</f>
+      </c>
+      <c r="N180" t="s" s="8">
+        <f>IF(M180=1,J180,"")</f>
+      </c>
+    </row>
+    <row r="181" ht="21.35" customHeight="1">
+      <c r="A181" s="13"/>
+      <c r="B181" t="s" s="6">
+        <v>189</v>
+      </c>
+      <c r="C181" s="6">
+        <v>67</v>
+      </c>
+      <c r="D181" s="7">
+        <v>52</v>
+      </c>
+      <c r="E181" s="7">
+        <v>199</v>
+      </c>
+      <c r="F181" s="7">
+        <v>3</v>
+      </c>
+      <c r="G181" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H181" s="8">
+        <f>IF(G181="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I181" s="8">
+        <v>0</v>
+      </c>
+      <c r="J181" s="8">
+        <f>IF(AND(H181,I181),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K181" t="s" s="8">
+        <f>IF(I181=1,1,"")</f>
+      </c>
+      <c r="L181" t="s" s="8">
+        <f>IF(K181=1,J181,"")</f>
+      </c>
+      <c r="M181" t="s" s="8">
+        <f>IF(H181=1,1,"")</f>
+      </c>
+      <c r="N181" t="s" s="8">
+        <f>IF(M181=1,J181,"")</f>
+      </c>
+    </row>
+    <row r="182" ht="21.35" customHeight="1">
+      <c r="A182" s="13"/>
+      <c r="B182" t="s" s="6">
+        <v>190</v>
+      </c>
+      <c r="C182" s="6">
+        <v>67</v>
+      </c>
+      <c r="D182" s="7">
+        <v>42</v>
+      </c>
+      <c r="E182" s="7">
+        <v>177</v>
+      </c>
+      <c r="F182" s="7">
+        <v>3</v>
+      </c>
+      <c r="G182" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H182" s="8">
+        <f>IF(G182="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I182" s="8">
+        <v>0</v>
+      </c>
+      <c r="J182" s="8">
+        <f>IF(AND(H182,I182),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K182" t="s" s="8">
+        <f>IF(I182=1,1,"")</f>
+      </c>
+      <c r="L182" t="s" s="8">
+        <f>IF(K182=1,J182,"")</f>
+      </c>
+      <c r="M182" t="s" s="8">
+        <f>IF(H182=1,1,"")</f>
+      </c>
+      <c r="N182" t="s" s="8">
+        <f>IF(M182=1,J182,"")</f>
+      </c>
+    </row>
+    <row r="183" ht="21.35" customHeight="1">
+      <c r="A183" s="13"/>
+      <c r="B183" t="s" s="6">
+        <v>191</v>
+      </c>
+      <c r="C183" s="6">
+        <v>67</v>
+      </c>
+      <c r="D183" s="7">
+        <v>61</v>
+      </c>
+      <c r="E183" s="7">
+        <v>130</v>
+      </c>
+      <c r="F183" s="7">
+        <v>3</v>
+      </c>
+      <c r="G183" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H183" s="8">
+        <f>IF(G183="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I183" s="8">
+        <v>0</v>
+      </c>
+      <c r="J183" s="8">
+        <f>IF(AND(H183,I183),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K183" t="s" s="8">
+        <f>IF(I183=1,1,"")</f>
+      </c>
+      <c r="L183" t="s" s="8">
+        <f>IF(K183=1,J183,"")</f>
+      </c>
+      <c r="M183" t="s" s="8">
+        <f>IF(H183=1,1,"")</f>
+      </c>
+      <c r="N183" t="s" s="8">
+        <f>IF(M183=1,J183,"")</f>
+      </c>
+    </row>
+    <row r="184" ht="21.35" customHeight="1">
+      <c r="A184" s="13"/>
+      <c r="B184" t="s" s="6">
+        <v>192</v>
+      </c>
+      <c r="C184" s="6">
+        <v>67</v>
+      </c>
+      <c r="D184" s="7">
+        <v>34</v>
+      </c>
+      <c r="E184" s="7">
+        <v>171</v>
+      </c>
+      <c r="F184" s="7">
+        <v>3</v>
+      </c>
+      <c r="G184" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H184" s="8">
+        <f>IF(G184="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I184" s="8">
+        <v>0</v>
+      </c>
+      <c r="J184" s="8">
+        <f>IF(AND(H184,I184),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K184" t="s" s="8">
+        <f>IF(I184=1,1,"")</f>
+      </c>
+      <c r="L184" t="s" s="8">
+        <f>IF(K184=1,J184,"")</f>
+      </c>
+      <c r="M184" s="8">
+        <f>IF(H184=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N184" s="8">
+        <f>IF(M184=1,J184,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" ht="21.35" customHeight="1">
+      <c r="A185" s="13"/>
+      <c r="B185" t="s" s="9">
+        <v>193</v>
+      </c>
+      <c r="C185" s="6">
+        <v>67</v>
+      </c>
+      <c r="D185" s="10">
+        <v>24</v>
+      </c>
+      <c r="E185" s="10">
+        <v>72</v>
+      </c>
+      <c r="F185" s="10">
+        <v>2</v>
+      </c>
+      <c r="G185" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H185" s="8">
+        <f>IF(G185="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I185" s="8">
+        <v>1</v>
+      </c>
+      <c r="J185" s="8">
+        <f>IF(AND(H185,I185),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K185" s="8">
+        <f>IF(I185=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L185" s="8">
+        <f>IF(K185=1,J185,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M185" s="8">
+        <f>IF(H185=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N185" s="8">
+        <f>IF(M185=1,J185,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" ht="21.35" customHeight="1">
+      <c r="A186" s="13"/>
+      <c r="B186" t="s" s="6">
+        <v>194</v>
+      </c>
+      <c r="C186" s="6">
+        <v>67</v>
+      </c>
+      <c r="D186" s="7">
+        <v>36</v>
+      </c>
+      <c r="E186" s="7">
+        <v>177</v>
+      </c>
+      <c r="F186" s="7">
+        <v>3</v>
+      </c>
+      <c r="G186" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H186" s="8">
+        <f>IF(G186="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I186" s="8">
+        <v>0</v>
+      </c>
+      <c r="J186" s="8">
+        <f>IF(AND(H186,I186),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K186" t="s" s="8">
+        <f>IF(I186=1,1,"")</f>
+      </c>
+      <c r="L186" t="s" s="8">
+        <f>IF(K186=1,J186,"")</f>
+      </c>
+      <c r="M186" s="8">
+        <f>IF(H186=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N186" s="8">
+        <f>IF(M186=1,J186,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" ht="21.35" customHeight="1">
+      <c r="A187" s="13"/>
+      <c r="B187" t="s" s="11">
+        <v>195</v>
+      </c>
+      <c r="C187" s="6">
+        <v>67</v>
+      </c>
+      <c r="D187" s="12">
+        <v>98</v>
+      </c>
+      <c r="E187" s="12">
+        <v>258</v>
+      </c>
+      <c r="F187" s="12">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H187" s="8">
+        <f>IF(G187="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I187" s="8">
+        <v>0</v>
+      </c>
+      <c r="J187" s="8">
+        <f>IF(AND(H187,I187),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K187" t="s" s="8">
+        <f>IF(I187=1,1,"")</f>
+      </c>
+      <c r="L187" t="s" s="8">
+        <f>IF(K187=1,J187,"")</f>
+      </c>
+      <c r="M187" t="s" s="8">
+        <f>IF(H187=1,1,"")</f>
+      </c>
+      <c r="N187" t="s" s="8">
+        <f>IF(M187=1,J187,"")</f>
+      </c>
+    </row>
+    <row r="188" ht="21.35" customHeight="1">
+      <c r="A188" s="13"/>
+      <c r="B188" t="s" s="9">
+        <v>196</v>
+      </c>
+      <c r="C188" s="6">
+        <v>67</v>
+      </c>
+      <c r="D188" s="10">
+        <v>24</v>
+      </c>
+      <c r="E188" s="10">
+        <v>57</v>
+      </c>
+      <c r="F188" s="10">
+        <v>2</v>
+      </c>
+      <c r="G188" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H188" s="8">
+        <f>IF(G188="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I188" s="8">
+        <v>1</v>
+      </c>
+      <c r="J188" s="8">
+        <f>IF(AND(H188,I188),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K188" s="8">
+        <f>IF(I188=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L188" s="8">
+        <f>IF(K188=1,J188,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M188" t="s" s="8">
+        <f>IF(H188=1,1,"")</f>
+      </c>
+      <c r="N188" t="s" s="8">
+        <f>IF(M188=1,J188,"")</f>
+      </c>
+    </row>
+    <row r="189" ht="21.35" customHeight="1">
+      <c r="A189" s="13"/>
+      <c r="B189" t="s" s="9">
+        <v>197</v>
+      </c>
+      <c r="C189" s="6">
+        <v>67</v>
+      </c>
+      <c r="D189" s="10">
+        <v>34</v>
+      </c>
+      <c r="E189" s="10">
+        <v>96</v>
+      </c>
+      <c r="F189" s="10">
+        <v>2</v>
+      </c>
+      <c r="G189" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H189" s="8">
+        <f>IF(G189="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I189" s="8">
+        <v>1</v>
+      </c>
+      <c r="J189" s="8">
+        <f>IF(AND(H189,I189),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K189" s="8">
+        <f>IF(I189=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L189" s="8">
+        <f>IF(K189=1,J189,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M189" t="s" s="8">
+        <f>IF(H189=1,1,"")</f>
+      </c>
+      <c r="N189" t="s" s="8">
+        <f>IF(M189=1,J189,"")</f>
+      </c>
+    </row>
+    <row r="190" ht="21.35" customHeight="1">
+      <c r="A190" s="13"/>
+      <c r="B190" t="s" s="6">
+        <v>198</v>
+      </c>
+      <c r="C190" s="6">
+        <v>67</v>
+      </c>
+      <c r="D190" s="7">
+        <v>24</v>
+      </c>
+      <c r="E190" s="7">
+        <v>210</v>
+      </c>
+      <c r="F190" s="7">
+        <v>3</v>
+      </c>
+      <c r="G190" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H190" s="8">
+        <f>IF(G190="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I190" s="8">
+        <v>0</v>
+      </c>
+      <c r="J190" s="8">
+        <f>IF(AND(H190,I190),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K190" t="s" s="8">
+        <f>IF(I190=1,1,"")</f>
+      </c>
+      <c r="L190" t="s" s="8">
+        <f>IF(K190=1,J190,"")</f>
+      </c>
+      <c r="M190" s="8">
+        <f>IF(H190=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N190" s="8">
+        <f>IF(M190=1,J190,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" ht="21.35" customHeight="1">
+      <c r="A191" s="13"/>
+      <c r="B191" t="s" s="6">
+        <v>199</v>
+      </c>
+      <c r="C191" s="6">
+        <v>67</v>
+      </c>
+      <c r="D191" s="7">
+        <v>43</v>
+      </c>
+      <c r="E191" s="7">
+        <v>142</v>
+      </c>
+      <c r="F191" s="7">
+        <v>3</v>
+      </c>
+      <c r="G191" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H191" s="8">
+        <f>IF(G191="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I191" s="8">
+        <v>0</v>
+      </c>
+      <c r="J191" s="8">
+        <f>IF(AND(H191,I191),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K191" t="s" s="8">
+        <f>IF(I191=1,1,"")</f>
+      </c>
+      <c r="L191" t="s" s="8">
+        <f>IF(K191=1,J191,"")</f>
+      </c>
+      <c r="M191" t="s" s="8">
+        <f>IF(H191=1,1,"")</f>
+      </c>
+      <c r="N191" t="s" s="8">
+        <f>IF(M191=1,J191,"")</f>
+      </c>
+    </row>
+    <row r="192" ht="21.35" customHeight="1">
+      <c r="A192" s="13"/>
+      <c r="B192" t="s" s="9">
+        <v>200</v>
+      </c>
+      <c r="C192" s="6">
+        <v>67</v>
+      </c>
+      <c r="D192" s="10">
+        <v>31</v>
+      </c>
+      <c r="E192" s="10">
+        <v>87</v>
+      </c>
+      <c r="F192" s="10">
+        <v>2</v>
+      </c>
+      <c r="G192" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H192" s="8">
+        <f>IF(G192="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I192" s="8">
+        <v>1</v>
+      </c>
+      <c r="J192" s="8">
+        <f>IF(AND(H192,I192),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K192" s="8">
+        <f>IF(I192=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L192" s="8">
+        <f>IF(K192=1,J192,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M192" t="s" s="8">
+        <f>IF(H192=1,1,"")</f>
+      </c>
+      <c r="N192" t="s" s="8">
+        <f>IF(M192=1,J192,"")</f>
+      </c>
+    </row>
+    <row r="193" ht="21.35" customHeight="1">
+      <c r="A193" s="13"/>
+      <c r="B193" t="s" s="9">
+        <v>201</v>
+      </c>
+      <c r="C193" s="6">
+        <v>67</v>
+      </c>
+      <c r="D193" s="10">
+        <v>24</v>
+      </c>
+      <c r="E193" s="10">
+        <v>78</v>
+      </c>
+      <c r="F193" s="10">
+        <v>2</v>
+      </c>
+      <c r="G193" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H193" s="8">
+        <f>IF(G193="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I193" s="8">
+        <v>1</v>
+      </c>
+      <c r="J193" s="8">
+        <f>IF(AND(H193,I193),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K193" s="8">
+        <f>IF(I193=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L193" s="8">
+        <f>IF(K193=1,J193,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M193" s="8">
+        <f>IF(H193=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N193" s="8">
+        <f>IF(M193=1,J193,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" ht="21.35" customHeight="1">
+      <c r="A194" s="13"/>
+      <c r="B194" t="s" s="6">
+        <v>202</v>
+      </c>
+      <c r="C194" s="6">
+        <v>80</v>
+      </c>
+      <c r="D194" s="7">
+        <v>62</v>
+      </c>
+      <c r="E194" s="7">
+        <v>198</v>
+      </c>
+      <c r="F194" s="7">
+        <v>1</v>
+      </c>
+      <c r="G194" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H194" s="8">
+        <f>IF(G194="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I194" s="8">
+        <v>0</v>
+      </c>
+      <c r="J194" s="8">
+        <f>IF(AND(H194,I194),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K194" t="s" s="8">
+        <f>IF(I194=1,1,"")</f>
+      </c>
+      <c r="L194" t="s" s="8">
+        <f>IF(K194=1,J194,"")</f>
+      </c>
+      <c r="M194" t="s" s="8">
+        <f>IF(H194=1,1,"")</f>
+      </c>
+      <c r="N194" t="s" s="8">
+        <f>IF(M194=1,J194,"")</f>
+      </c>
+    </row>
+    <row r="195" ht="21.35" customHeight="1">
+      <c r="A195" s="13"/>
+      <c r="B195" t="s" s="9">
+        <v>203</v>
+      </c>
+      <c r="C195" s="6">
+        <v>80</v>
+      </c>
+      <c r="D195" s="10">
+        <v>13</v>
+      </c>
+      <c r="E195" s="10">
+        <v>46</v>
+      </c>
+      <c r="F195" s="10">
+        <v>2</v>
+      </c>
+      <c r="G195" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H195" s="8">
+        <f>IF(G195="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I195" s="8">
+        <v>1</v>
+      </c>
+      <c r="J195" s="8">
+        <f>IF(AND(H195,I195),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K195" s="8">
+        <f>IF(I195=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L195" s="8">
+        <f>IF(K195=1,J195,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M195" s="8">
+        <f>IF(H195=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N195" s="8">
+        <f>IF(M195=1,J195,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" ht="21.35" customHeight="1">
+      <c r="A196" s="13"/>
+      <c r="B196" t="s" s="6">
+        <v>204</v>
+      </c>
+      <c r="C196" s="6">
+        <v>80</v>
+      </c>
+      <c r="D196" s="7">
+        <v>40</v>
+      </c>
+      <c r="E196" s="7">
+        <v>199</v>
+      </c>
+      <c r="F196" s="7">
+        <v>1</v>
+      </c>
+      <c r="G196" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H196" s="8">
+        <f>IF(G196="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I196" s="8">
+        <v>0</v>
+      </c>
+      <c r="J196" s="8">
+        <f>IF(AND(H196,I196),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K196" t="s" s="8">
+        <f>IF(I196=1,1,"")</f>
+      </c>
+      <c r="L196" t="s" s="8">
+        <f>IF(K196=1,J196,"")</f>
+      </c>
+      <c r="M196" t="s" s="8">
+        <f>IF(H196=1,1,"")</f>
+      </c>
+      <c r="N196" t="s" s="8">
+        <f>IF(M196=1,J196,"")</f>
+      </c>
+    </row>
+    <row r="197" ht="21.35" customHeight="1">
+      <c r="A197" s="13"/>
+      <c r="B197" t="s" s="9">
+        <v>205</v>
+      </c>
+      <c r="C197" s="6">
+        <v>80</v>
+      </c>
+      <c r="D197" s="10">
+        <v>4</v>
+      </c>
+      <c r="E197" s="10">
+        <v>18</v>
+      </c>
+      <c r="F197" s="10">
+        <v>2</v>
+      </c>
+      <c r="G197" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H197" s="8">
+        <f>IF(G197="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I197" s="8">
+        <v>1</v>
+      </c>
+      <c r="J197" s="8">
+        <f>IF(AND(H197,I197),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K197" s="8">
+        <f>IF(I197=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L197" s="8">
+        <f>IF(K197=1,J197,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M197" s="8">
+        <f>IF(H197=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N197" s="8">
+        <f>IF(M197=1,J197,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" ht="21.35" customHeight="1">
+      <c r="A198" s="13"/>
+      <c r="B198" t="s" s="6">
+        <v>206</v>
+      </c>
+      <c r="C198" s="6">
+        <v>80</v>
+      </c>
+      <c r="D198" s="7">
+        <v>59</v>
+      </c>
+      <c r="E198" s="7">
+        <v>187</v>
+      </c>
+      <c r="F198" s="7">
+        <v>1</v>
+      </c>
+      <c r="G198" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H198" s="8">
+        <f>IF(G198="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I198" s="8">
+        <v>0</v>
+      </c>
+      <c r="J198" s="8">
+        <f>IF(AND(H198,I198),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K198" t="s" s="8">
+        <f>IF(I198=1,1,"")</f>
+      </c>
+      <c r="L198" t="s" s="8">
+        <f>IF(K198=1,J198,"")</f>
+      </c>
+      <c r="M198" t="s" s="8">
+        <f>IF(H198=1,1,"")</f>
+      </c>
+      <c r="N198" t="s" s="8">
+        <f>IF(M198=1,J198,"")</f>
+      </c>
+    </row>
+    <row r="199" ht="21.35" customHeight="1">
+      <c r="A199" s="13"/>
+      <c r="B199" t="s" s="6">
+        <v>207</v>
+      </c>
+      <c r="C199" s="6">
+        <v>80</v>
+      </c>
+      <c r="D199" s="7">
+        <v>58</v>
+      </c>
+      <c r="E199" s="7">
+        <v>155</v>
+      </c>
+      <c r="F199" s="7">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H199" s="8">
+        <f>IF(G199="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I199" s="8">
+        <v>0</v>
+      </c>
+      <c r="J199" s="8">
+        <f>IF(AND(H199,I199),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K199" t="s" s="8">
+        <f>IF(I199=1,1,"")</f>
+      </c>
+      <c r="L199" t="s" s="8">
+        <f>IF(K199=1,J199,"")</f>
+      </c>
+      <c r="M199" t="s" s="8">
+        <f>IF(H199=1,1,"")</f>
+      </c>
+      <c r="N199" t="s" s="8">
+        <f>IF(M199=1,J199,"")</f>
+      </c>
+    </row>
+    <row r="200" ht="21.35" customHeight="1">
+      <c r="A200" s="13"/>
+      <c r="B200" t="s" s="15">
+        <v>208</v>
+      </c>
+      <c r="C200" s="6">
+        <v>80</v>
+      </c>
+      <c r="D200" s="16">
+        <v>109</v>
+      </c>
+      <c r="E200" s="16">
+        <v>345</v>
+      </c>
+      <c r="F200" s="16">
+        <v>3</v>
+      </c>
+      <c r="G200" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H200" s="8">
+        <f>IF(G200="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I200" s="8">
+        <v>0</v>
+      </c>
+      <c r="J200" s="8">
+        <f>IF(AND(H200,I200),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K200" t="s" s="8">
+        <f>IF(I200=1,1,"")</f>
+      </c>
+      <c r="L200" t="s" s="8">
+        <f>IF(K200=1,J200,"")</f>
+      </c>
+      <c r="M200" t="s" s="8">
+        <f>IF(H200=1,1,"")</f>
+      </c>
+      <c r="N200" t="s" s="8">
+        <f>IF(M200=1,J200,"")</f>
+      </c>
+    </row>
+    <row r="201" ht="21.35" customHeight="1">
+      <c r="A201" s="13"/>
+      <c r="B201" t="s" s="15">
+        <v>209</v>
+      </c>
+      <c r="C201" s="6">
+        <v>80</v>
+      </c>
+      <c r="D201" s="16">
+        <v>69</v>
+      </c>
+      <c r="E201" s="16">
+        <v>276</v>
+      </c>
+      <c r="F201" s="16">
+        <v>3</v>
+      </c>
+      <c r="G201" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H201" s="8">
+        <f>IF(G201="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I201" s="8">
+        <v>0</v>
+      </c>
+      <c r="J201" s="8">
+        <f>IF(AND(H201,I201),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K201" t="s" s="8">
+        <f>IF(I201=1,1,"")</f>
+      </c>
+      <c r="L201" t="s" s="8">
+        <f>IF(K201=1,J201,"")</f>
+      </c>
+      <c r="M201" t="s" s="8">
+        <f>IF(H201=1,1,"")</f>
+      </c>
+      <c r="N201" t="s" s="8">
+        <f>IF(M201=1,J201,"")</f>
+      </c>
+    </row>
+    <row r="202" ht="21.35" customHeight="1">
+      <c r="A202" s="13"/>
+      <c r="B202" t="s" s="9">
+        <v>210</v>
+      </c>
+      <c r="C202" s="6">
+        <v>80</v>
+      </c>
+      <c r="D202" s="10">
+        <v>16</v>
+      </c>
+      <c r="E202" s="10">
+        <v>80</v>
+      </c>
+      <c r="F202" s="10">
+        <v>2</v>
+      </c>
+      <c r="G202" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H202" s="8">
+        <f>IF(G202="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I202" s="8">
+        <v>1</v>
+      </c>
+      <c r="J202" s="8">
+        <f>IF(AND(H202,I202),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K202" s="8">
+        <f>IF(I202=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L202" s="8">
+        <f>IF(K202=1,J202,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M202" t="s" s="8">
+        <f>IF(H202=1,1,"")</f>
+      </c>
+      <c r="N202" t="s" s="8">
+        <f>IF(M202=1,J202,"")</f>
+      </c>
+    </row>
+    <row r="203" ht="21.35" customHeight="1">
+      <c r="A203" s="13"/>
+      <c r="B203" t="s" s="6">
+        <v>211</v>
+      </c>
+      <c r="C203" s="6">
+        <v>80</v>
+      </c>
+      <c r="D203" s="7">
+        <v>22</v>
+      </c>
+      <c r="E203" s="7">
+        <v>119</v>
+      </c>
+      <c r="F203" s="7">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H203" s="8">
+        <f>IF(G203="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I203" s="8">
+        <v>0</v>
+      </c>
+      <c r="J203" s="8">
+        <f>IF(AND(H203,I203),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K203" t="s" s="8">
+        <f>IF(I203=1,1,"")</f>
+      </c>
+      <c r="L203" t="s" s="8">
+        <f>IF(K203=1,J203,"")</f>
+      </c>
+      <c r="M203" t="s" s="8">
+        <f>IF(H203=1,1,"")</f>
+      </c>
+      <c r="N203" t="s" s="8">
+        <f>IF(M203=1,J203,"")</f>
+      </c>
+    </row>
+    <row r="204" ht="21.35" customHeight="1">
+      <c r="A204" s="13"/>
+      <c r="B204" t="s" s="15">
+        <v>212</v>
+      </c>
+      <c r="C204" s="6">
+        <v>80</v>
+      </c>
+      <c r="D204" s="16">
+        <v>41</v>
+      </c>
+      <c r="E204" s="16">
+        <v>294</v>
+      </c>
+      <c r="F204" s="16">
+        <v>3</v>
+      </c>
+      <c r="G204" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H204" s="8">
+        <f>IF(G204="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I204" s="8">
+        <v>0</v>
+      </c>
+      <c r="J204" s="8">
+        <f>IF(AND(H204,I204),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K204" t="s" s="8">
+        <f>IF(I204=1,1,"")</f>
+      </c>
+      <c r="L204" t="s" s="8">
+        <f>IF(K204=1,J204,"")</f>
+      </c>
+      <c r="M204" t="s" s="8">
+        <f>IF(H204=1,1,"")</f>
+      </c>
+      <c r="N204" t="s" s="8">
+        <f>IF(M204=1,J204,"")</f>
+      </c>
+    </row>
+    <row r="205" ht="21.35" customHeight="1">
+      <c r="A205" s="13"/>
+      <c r="B205" t="s" s="6">
+        <v>213</v>
+      </c>
+      <c r="C205" s="6">
+        <v>80</v>
+      </c>
+      <c r="D205" s="7">
+        <v>37</v>
+      </c>
+      <c r="E205" s="7">
+        <v>116</v>
+      </c>
+      <c r="F205" s="7">
+        <v>1</v>
+      </c>
+      <c r="G205" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H205" s="8">
+        <f>IF(G205="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I205" s="8">
+        <v>0</v>
+      </c>
+      <c r="J205" s="8">
+        <f>IF(AND(H205,I205),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K205" t="s" s="8">
+        <f>IF(I205=1,1,"")</f>
+      </c>
+      <c r="L205" t="s" s="8">
+        <f>IF(K205=1,J205,"")</f>
+      </c>
+      <c r="M205" t="s" s="8">
+        <f>IF(H205=1,1,"")</f>
+      </c>
+      <c r="N205" t="s" s="8">
+        <f>IF(M205=1,J205,"")</f>
+      </c>
+    </row>
+    <row r="206" ht="21.35" customHeight="1">
+      <c r="A206" s="13"/>
+      <c r="B206" t="s" s="15">
+        <v>214</v>
+      </c>
+      <c r="C206" s="6">
+        <v>80</v>
+      </c>
+      <c r="D206" s="16">
+        <v>80</v>
+      </c>
+      <c r="E206" s="16">
+        <v>278</v>
+      </c>
+      <c r="F206" s="16">
+        <v>3</v>
+      </c>
+      <c r="G206" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H206" s="8">
+        <f>IF(G206="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I206" s="8">
+        <v>0</v>
+      </c>
+      <c r="J206" s="8">
+        <f>IF(AND(H206,I206),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K206" t="s" s="8">
+        <f>IF(I206=1,1,"")</f>
+      </c>
+      <c r="L206" t="s" s="8">
+        <f>IF(K206=1,J206,"")</f>
+      </c>
+      <c r="M206" t="s" s="8">
+        <f>IF(H206=1,1,"")</f>
+      </c>
+      <c r="N206" t="s" s="8">
+        <f>IF(M206=1,J206,"")</f>
+      </c>
+    </row>
+    <row r="207" ht="21.35" customHeight="1">
+      <c r="A207" s="13"/>
+      <c r="B207" t="s" s="15">
+        <v>215</v>
+      </c>
+      <c r="C207" s="6">
+        <v>80</v>
+      </c>
+      <c r="D207" s="16">
+        <v>90</v>
+      </c>
+      <c r="E207" s="16">
+        <v>518</v>
+      </c>
+      <c r="F207" s="16">
+        <v>3</v>
+      </c>
+      <c r="G207" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H207" s="8">
+        <f>IF(G207="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I207" s="8">
+        <v>0</v>
+      </c>
+      <c r="J207" s="8">
+        <f>IF(AND(H207,I207),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K207" t="s" s="8">
+        <f>IF(I207=1,1,"")</f>
+      </c>
+      <c r="L207" t="s" s="8">
+        <f>IF(K207=1,J207,"")</f>
+      </c>
+      <c r="M207" t="s" s="8">
+        <f>IF(H207=1,1,"")</f>
+      </c>
+      <c r="N207" t="s" s="8">
+        <f>IF(M207=1,J207,"")</f>
+      </c>
+    </row>
+    <row r="208" ht="21.35" customHeight="1">
+      <c r="A208" s="13"/>
+      <c r="B208" t="s" s="9">
+        <v>216</v>
+      </c>
+      <c r="C208" s="6">
+        <v>80</v>
+      </c>
+      <c r="D208" s="10">
+        <v>21</v>
+      </c>
+      <c r="E208" s="10">
+        <v>105</v>
+      </c>
+      <c r="F208" s="10">
+        <v>2</v>
+      </c>
+      <c r="G208" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H208" s="8">
+        <f>IF(G208="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I208" s="8">
+        <v>1</v>
+      </c>
+      <c r="J208" s="8">
+        <f>IF(AND(H208,I208),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K208" s="8">
+        <f>IF(I208=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L208" s="8">
+        <f>IF(K208=1,J208,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M208" s="8">
+        <f>IF(H208=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N208" s="8">
+        <f>IF(M208=1,J208,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" ht="21.35" customHeight="1">
+      <c r="A209" s="13"/>
+      <c r="B209" t="s" s="6">
+        <v>217</v>
+      </c>
+      <c r="C209" s="6">
+        <v>80</v>
+      </c>
+      <c r="D209" s="7">
+        <v>46</v>
+      </c>
+      <c r="E209" s="7">
+        <v>149</v>
+      </c>
+      <c r="F209" s="7">
+        <v>1</v>
+      </c>
+      <c r="G209" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H209" s="8">
+        <f>IF(G209="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I209" s="8">
+        <v>0</v>
+      </c>
+      <c r="J209" s="8">
+        <f>IF(AND(H209,I209),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K209" t="s" s="8">
+        <f>IF(I209=1,1,"")</f>
+      </c>
+      <c r="L209" t="s" s="8">
+        <f>IF(K209=1,J209,"")</f>
+      </c>
+      <c r="M209" t="s" s="8">
+        <f>IF(H209=1,1,"")</f>
+      </c>
+      <c r="N209" t="s" s="8">
+        <f>IF(M209=1,J209,"")</f>
+      </c>
+    </row>
+    <row r="210" ht="21.35" customHeight="1">
+      <c r="A210" s="13"/>
+      <c r="B210" t="s" s="6">
+        <v>218</v>
+      </c>
+      <c r="C210" s="6">
+        <v>80</v>
+      </c>
+      <c r="D210" s="7">
+        <v>15</v>
+      </c>
+      <c r="E210" s="7">
+        <v>134</v>
+      </c>
+      <c r="F210" s="7">
+        <v>1</v>
+      </c>
+      <c r="G210" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H210" s="8">
+        <f>IF(G210="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I210" s="8">
+        <v>0</v>
+      </c>
+      <c r="J210" s="8">
+        <f>IF(AND(H210,I210),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K210" t="s" s="8">
+        <f>IF(I210=1,1,"")</f>
+      </c>
+      <c r="L210" t="s" s="8">
+        <f>IF(K210=1,J210,"")</f>
+      </c>
+      <c r="M210" s="8">
+        <f>IF(H210=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N210" s="8">
+        <f>IF(M210=1,J210,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" ht="21.35" customHeight="1">
+      <c r="A211" s="13"/>
+      <c r="B211" t="s" s="6">
+        <v>219</v>
+      </c>
+      <c r="C211" s="6">
+        <v>80</v>
+      </c>
+      <c r="D211" s="7">
+        <v>44</v>
+      </c>
+      <c r="E211" s="7">
+        <v>107</v>
+      </c>
+      <c r="F211" s="7">
+        <v>1</v>
+      </c>
+      <c r="G211" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H211" s="8">
+        <f>IF(G211="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I211" s="8">
+        <v>0</v>
+      </c>
+      <c r="J211" s="8">
+        <f>IF(AND(H211,I211),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K211" t="s" s="8">
+        <f>IF(I211=1,1,"")</f>
+      </c>
+      <c r="L211" t="s" s="8">
+        <f>IF(K211=1,J211,"")</f>
+      </c>
+      <c r="M211" s="8">
+        <f>IF(H211=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N211" s="8">
+        <f>IF(M211=1,J211,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" ht="21.35" customHeight="1">
+      <c r="A212" s="13"/>
+      <c r="B212" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="C212" s="6">
+        <v>80</v>
+      </c>
+      <c r="D212" s="16">
+        <v>51</v>
+      </c>
+      <c r="E212" s="16">
+        <v>257</v>
+      </c>
+      <c r="F212" s="16">
+        <v>3</v>
+      </c>
+      <c r="G212" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H212" s="8">
+        <f>IF(G212="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I212" s="8">
+        <v>0</v>
+      </c>
+      <c r="J212" s="8">
+        <f>IF(AND(H212,I212),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K212" t="s" s="8">
+        <f>IF(I212=1,1,"")</f>
+      </c>
+      <c r="L212" t="s" s="8">
+        <f>IF(K212=1,J212,"")</f>
+      </c>
+      <c r="M212" t="s" s="8">
+        <f>IF(H212=1,1,"")</f>
+      </c>
+      <c r="N212" t="s" s="8">
+        <f>IF(M212=1,J212,"")</f>
+      </c>
+    </row>
+    <row r="213" ht="21.35" customHeight="1">
+      <c r="A213" s="13"/>
+      <c r="B213" t="s" s="9">
+        <v>221</v>
+      </c>
+      <c r="C213" s="6">
+        <v>80</v>
+      </c>
+      <c r="D213" s="10">
+        <v>12</v>
+      </c>
+      <c r="E213" s="10">
+        <v>38</v>
+      </c>
+      <c r="F213" s="10">
+        <v>2</v>
+      </c>
+      <c r="G213" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H213" s="8">
+        <f>IF(G213="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I213" s="8">
+        <v>1</v>
+      </c>
+      <c r="J213" s="8">
+        <f>IF(AND(H213,I213),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K213" s="8">
+        <f>IF(I213=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L213" s="8">
+        <f>IF(K213=1,J213,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M213" s="8">
+        <f>IF(H213=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N213" s="8">
+        <f>IF(M213=1,J213,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" ht="21.35" customHeight="1">
+      <c r="A214" s="13"/>
+      <c r="B214" t="s" s="6">
+        <v>222</v>
+      </c>
+      <c r="C214" s="6">
+        <v>80</v>
+      </c>
+      <c r="D214" s="7">
+        <v>43</v>
+      </c>
+      <c r="E214" s="7">
+        <v>165</v>
+      </c>
+      <c r="F214" s="7">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H214" s="8">
+        <f>IF(G214="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I214" s="8">
+        <v>0</v>
+      </c>
+      <c r="J214" s="8">
+        <f>IF(AND(H214,I214),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K214" t="s" s="8">
+        <f>IF(I214=1,1,"")</f>
+      </c>
+      <c r="L214" t="s" s="8">
+        <f>IF(K214=1,J214,"")</f>
+      </c>
+      <c r="M214" t="s" s="8">
+        <f>IF(H214=1,1,"")</f>
+      </c>
+      <c r="N214" t="s" s="8">
+        <f>IF(M214=1,J214,"")</f>
+      </c>
+    </row>
+    <row r="215" ht="21.35" customHeight="1">
+      <c r="A215" s="13"/>
+      <c r="B215" t="s" s="6">
+        <v>223</v>
+      </c>
+      <c r="C215" s="6">
+        <v>80</v>
+      </c>
+      <c r="D215" s="7">
+        <v>57</v>
+      </c>
+      <c r="E215" s="7">
+        <v>157</v>
+      </c>
+      <c r="F215" s="7">
+        <v>1</v>
+      </c>
+      <c r="G215" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H215" s="8">
+        <f>IF(G215="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I215" s="8">
+        <v>0</v>
+      </c>
+      <c r="J215" s="8">
+        <f>IF(AND(H215,I215),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K215" t="s" s="8">
+        <f>IF(I215=1,1,"")</f>
+      </c>
+      <c r="L215" t="s" s="8">
+        <f>IF(K215=1,J215,"")</f>
+      </c>
+      <c r="M215" t="s" s="8">
+        <f>IF(H215=1,1,"")</f>
+      </c>
+      <c r="N215" t="s" s="8">
+        <f>IF(M215=1,J215,"")</f>
+      </c>
+    </row>
+    <row r="216" ht="21.35" customHeight="1">
+      <c r="A216" s="13"/>
+      <c r="B216" t="s" s="9">
+        <v>224</v>
+      </c>
+      <c r="C216" s="6">
+        <v>80</v>
+      </c>
+      <c r="D216" s="10">
+        <v>18</v>
+      </c>
+      <c r="E216" s="10">
+        <v>60</v>
+      </c>
+      <c r="F216" s="10">
+        <v>2</v>
+      </c>
+      <c r="G216" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H216" s="8">
+        <f>IF(G216="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I216" s="8">
+        <v>1</v>
+      </c>
+      <c r="J216" s="8">
+        <f>IF(AND(H216,I216),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K216" s="8">
+        <f>IF(I216=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L216" s="8">
+        <f>IF(K216=1,J216,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M216" t="s" s="8">
+        <f>IF(H216=1,1,"")</f>
+      </c>
+      <c r="N216" t="s" s="8">
+        <f>IF(M216=1,J216,"")</f>
+      </c>
+    </row>
+    <row r="217" ht="21.35" customHeight="1">
+      <c r="A217" s="13"/>
+      <c r="B217" t="s" s="6">
+        <v>225</v>
+      </c>
+      <c r="C217" s="6">
+        <v>80</v>
+      </c>
+      <c r="D217" s="7">
+        <v>39</v>
+      </c>
+      <c r="E217" s="7">
+        <v>127</v>
+      </c>
+      <c r="F217" s="7">
+        <v>1</v>
+      </c>
+      <c r="G217" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H217" s="8">
+        <f>IF(G217="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I217" s="8">
+        <v>0</v>
+      </c>
+      <c r="J217" s="8">
+        <f>IF(AND(H217,I217),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K217" t="s" s="8">
+        <f>IF(I217=1,1,"")</f>
+      </c>
+      <c r="L217" t="s" s="8">
+        <f>IF(K217=1,J217,"")</f>
+      </c>
+      <c r="M217" t="s" s="8">
+        <f>IF(H217=1,1,"")</f>
+      </c>
+      <c r="N217" t="s" s="8">
+        <f>IF(M217=1,J217,"")</f>
+      </c>
+    </row>
+    <row r="218" ht="21.35" customHeight="1">
+      <c r="A218" s="13"/>
+      <c r="B218" t="s" s="6">
+        <v>226</v>
+      </c>
+      <c r="C218" s="6">
+        <v>80</v>
+      </c>
+      <c r="D218" s="7">
+        <v>56</v>
+      </c>
+      <c r="E218" s="7">
+        <v>228</v>
+      </c>
+      <c r="F218" s="7">
+        <v>1</v>
+      </c>
+      <c r="G218" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H218" s="8">
+        <f>IF(G218="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I218" s="8">
+        <v>0</v>
+      </c>
+      <c r="J218" s="8">
+        <f>IF(AND(H218,I218),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K218" t="s" s="8">
+        <f>IF(I218=1,1,"")</f>
+      </c>
+      <c r="L218" t="s" s="8">
+        <f>IF(K218=1,J218,"")</f>
+      </c>
+      <c r="M218" t="s" s="8">
+        <f>IF(H218=1,1,"")</f>
+      </c>
+      <c r="N218" t="s" s="8">
+        <f>IF(M218=1,J218,"")</f>
+      </c>
+    </row>
+    <row r="219" ht="21.35" customHeight="1">
+      <c r="A219" s="13"/>
+      <c r="B219" t="s" s="9">
+        <v>227</v>
+      </c>
+      <c r="C219" s="6">
+        <v>80</v>
+      </c>
+      <c r="D219" s="10">
+        <v>31</v>
+      </c>
+      <c r="E219" s="10">
+        <v>84</v>
+      </c>
+      <c r="F219" s="10">
+        <v>2</v>
+      </c>
+      <c r="G219" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H219" s="8">
+        <f>IF(G219="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I219" s="8">
+        <v>1</v>
+      </c>
+      <c r="J219" s="8">
+        <f>IF(AND(H219,I219),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K219" s="8">
+        <f>IF(I219=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L219" s="8">
+        <f>IF(K219=1,J219,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M219" s="8">
+        <f>IF(H219=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N219" s="8">
+        <f>IF(M219=1,J219,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" ht="21.35" customHeight="1">
+      <c r="A220" s="13"/>
+      <c r="B220" t="s" s="6">
+        <v>228</v>
+      </c>
+      <c r="C220" s="6">
+        <v>80</v>
+      </c>
+      <c r="D220" s="7">
+        <v>27</v>
+      </c>
+      <c r="E220" s="7">
+        <v>138</v>
+      </c>
+      <c r="F220" s="7">
+        <v>1</v>
+      </c>
+      <c r="G220" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H220" s="8">
+        <f>IF(G220="RP",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I220" s="8">
+        <v>0</v>
+      </c>
+      <c r="J220" s="8">
+        <f>IF(AND(H220,I220),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K220" t="s" s="8">
+        <f>IF(I220=1,1,"")</f>
+      </c>
+      <c r="L220" t="s" s="8">
+        <f>IF(K220=1,J220,"")</f>
+      </c>
+      <c r="M220" t="s" s="8">
+        <f>IF(H220=1,1,"")</f>
+      </c>
+      <c r="N220" t="s" s="8">
+        <f>IF(M220=1,J220,"")</f>
+      </c>
+    </row>
+    <row r="221" ht="21.35" customHeight="1">
+      <c r="A221" s="13"/>
+      <c r="B221" t="s" s="9">
+        <v>229</v>
+      </c>
+      <c r="C221" s="6">
+        <v>80</v>
+      </c>
+      <c r="D221" s="10">
+        <v>25</v>
+      </c>
+      <c r="E221" s="10">
+        <v>61</v>
+      </c>
+      <c r="F221" s="10">
+        <v>2</v>
+      </c>
+      <c r="G221" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H221" s="8">
+        <f>IF(G221="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I221" s="8">
+        <v>1</v>
+      </c>
+      <c r="J221" s="8">
+        <f>IF(AND(H221,I221),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K221" s="8">
+        <f>IF(I221=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L221" s="8">
+        <f>IF(K221=1,J221,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M221" s="8">
+        <f>IF(H221=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N221" s="8">
+        <f>IF(M221=1,J221,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" ht="21.35" customHeight="1">
+      <c r="A222" s="13"/>
+      <c r="B222" t="s" s="9">
+        <v>230</v>
+      </c>
+      <c r="C222" s="6">
+        <v>80</v>
+      </c>
+      <c r="D222" s="10">
+        <v>26</v>
+      </c>
+      <c r="E222" s="10">
+        <v>79</v>
+      </c>
+      <c r="F222" s="10">
+        <v>2</v>
+      </c>
+      <c r="G222" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H222" s="8">
+        <f>IF(G222="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I222" s="8">
+        <v>1</v>
+      </c>
+      <c r="J222" s="8">
+        <f>IF(AND(H222,I222),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K222" s="8">
+        <f>IF(I222=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L222" s="8">
+        <f>IF(K222=1,J222,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M222" s="8">
+        <f>IF(H222=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N222" s="8">
+        <f>IF(M222=1,J222,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" ht="21.35" customHeight="1">
+      <c r="A223" s="13"/>
+      <c r="B223" t="s" s="9">
+        <v>231</v>
+      </c>
+      <c r="C223" s="6">
+        <v>80</v>
+      </c>
+      <c r="D223" s="10">
+        <v>29</v>
+      </c>
+      <c r="E223" s="10">
+        <v>104</v>
+      </c>
+      <c r="F223" s="10">
+        <v>2</v>
+      </c>
+      <c r="G223" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H223" s="8">
+        <f>IF(G223="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I223" s="8">
+        <v>1</v>
+      </c>
+      <c r="J223" s="8">
+        <f>IF(AND(H223,I223),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K223" s="8">
+        <f>IF(I223=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L223" s="8">
+        <f>IF(K223=1,J223,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M223" s="8">
+        <f>IF(H223=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N223" s="8">
+        <f>IF(M223=1,J223,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" ht="21.35" customHeight="1">
+      <c r="A224" s="13"/>
+      <c r="B224" t="s" s="9">
+        <v>232</v>
+      </c>
+      <c r="C224" s="6">
+        <v>80</v>
+      </c>
+      <c r="D224" s="10">
+        <v>24</v>
+      </c>
+      <c r="E224" s="10">
+        <v>47</v>
+      </c>
+      <c r="F224" s="10">
+        <v>2</v>
+      </c>
+      <c r="G224" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H224" s="8">
+        <f>IF(G224="RP",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I224" s="8">
+        <v>1</v>
+      </c>
+      <c r="J224" s="8">
+        <f>IF(AND(H224,I224),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K224" s="8">
+        <f>IF(I224=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L224" s="8">
+        <f>IF(K224=1,J224,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M224" s="8">
+        <f>IF(H224=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N224" s="8">
+        <f>IF(M224=1,J224,"")</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -9076,2105 +12417,4 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;11&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="9.05469" style="15" customWidth="1"/>
-    <col min="2" max="2" width="35.5859" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9.05469" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.05469" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.05469" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.05469" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.05469" style="15" customWidth="1"/>
-    <col min="8" max="256" width="9.05469" style="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" ht="21.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="9">
-        <v>147</v>
-      </c>
-      <c r="C2" s="10">
-        <v>12</v>
-      </c>
-      <c r="D2" s="10">
-        <v>58</v>
-      </c>
-      <c r="E2" s="10">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="21.35" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="9">
-        <v>148</v>
-      </c>
-      <c r="C3" s="10">
-        <v>19</v>
-      </c>
-      <c r="D3" s="10">
-        <v>65</v>
-      </c>
-      <c r="E3" s="10">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="21.35" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s" s="9">
-        <v>149</v>
-      </c>
-      <c r="C4" s="10">
-        <v>27</v>
-      </c>
-      <c r="D4" s="10">
-        <v>71</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="21.35" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s" s="6">
-        <v>150</v>
-      </c>
-      <c r="C5" s="7">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7">
-        <v>117</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" ht="21.35" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s" s="9">
-        <v>151</v>
-      </c>
-      <c r="C6" s="10">
-        <v>29</v>
-      </c>
-      <c r="D6" s="10">
-        <v>71</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="21.35" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s" s="6">
-        <v>152</v>
-      </c>
-      <c r="C7" s="7">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7">
-        <v>105</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" ht="21.35" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s" s="9">
-        <v>153</v>
-      </c>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>45</v>
-      </c>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="21.35" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s" s="6">
-        <v>154</v>
-      </c>
-      <c r="C9" s="7">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" ht="21.35" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s" s="9">
-        <v>155</v>
-      </c>
-      <c r="C10" s="10">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10">
-        <v>39</v>
-      </c>
-      <c r="E10" s="10">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="21.35" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s" s="9">
-        <v>156</v>
-      </c>
-      <c r="C11" s="10">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10">
-        <v>19</v>
-      </c>
-      <c r="E11" s="10">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="21.35" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s" s="11">
-        <v>157</v>
-      </c>
-      <c r="C12" s="12">
-        <v>49</v>
-      </c>
-      <c r="D12" s="12">
-        <v>223</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="21.35" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s" s="6">
-        <v>158</v>
-      </c>
-      <c r="C13" s="7">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7">
-        <v>108</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" ht="21.35" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s" s="9">
-        <v>159</v>
-      </c>
-      <c r="C14" s="10">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="21.35" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s" s="11">
-        <v>160</v>
-      </c>
-      <c r="C15" s="12">
-        <v>23</v>
-      </c>
-      <c r="D15" s="12">
-        <v>155</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="21.35" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s" s="6">
-        <v>161</v>
-      </c>
-      <c r="C16" s="7">
-        <v>23</v>
-      </c>
-      <c r="D16" s="7">
-        <v>82</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" ht="21.35" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s" s="9">
-        <v>162</v>
-      </c>
-      <c r="C17" s="10">
-        <v>11</v>
-      </c>
-      <c r="D17" s="10">
-        <v>69</v>
-      </c>
-      <c r="E17" s="10">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="21.35" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s" s="6">
-        <v>163</v>
-      </c>
-      <c r="C18" s="7">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7">
-        <v>121</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" ht="21.35" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s" s="9">
-        <v>164</v>
-      </c>
-      <c r="C19" s="10">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10">
-        <v>34</v>
-      </c>
-      <c r="E19" s="10">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="21.35" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" t="s" s="6">
-        <v>165</v>
-      </c>
-      <c r="C20" s="7">
-        <v>35</v>
-      </c>
-      <c r="D20" s="7">
-        <v>90</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" ht="21.35" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" t="s" s="9">
-        <v>166</v>
-      </c>
-      <c r="C21" s="10">
-        <v>13</v>
-      </c>
-      <c r="D21" s="10">
-        <v>47</v>
-      </c>
-      <c r="E21" s="10">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="21.35" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="C22" s="7">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7">
-        <v>88</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" ht="21.35" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s" s="9">
-        <v>133</v>
-      </c>
-      <c r="C23" s="10">
-        <v>12</v>
-      </c>
-      <c r="D23" s="10">
-        <v>25</v>
-      </c>
-      <c r="E23" s="10">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="21.35" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" t="s" s="6">
-        <v>168</v>
-      </c>
-      <c r="C24" s="7">
-        <v>37</v>
-      </c>
-      <c r="D24" s="7">
-        <v>138</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" ht="21.35" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s" s="6">
-        <v>169</v>
-      </c>
-      <c r="C25" s="7">
-        <v>39</v>
-      </c>
-      <c r="D25" s="7">
-        <v>105</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" ht="21.35" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s" s="6">
-        <v>170</v>
-      </c>
-      <c r="C26" s="7">
-        <v>49</v>
-      </c>
-      <c r="D26" s="7">
-        <v>109</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" ht="21.35" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" t="s" s="11">
-        <v>171</v>
-      </c>
-      <c r="C27" s="12">
-        <v>40</v>
-      </c>
-      <c r="D27" s="12">
-        <v>197</v>
-      </c>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="21.35" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="C28" s="10">
-        <v>16</v>
-      </c>
-      <c r="D28" s="10">
-        <v>31</v>
-      </c>
-      <c r="E28" s="10">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="21.35" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" t="s" s="9">
-        <v>173</v>
-      </c>
-      <c r="C29" s="10">
-        <v>11</v>
-      </c>
-      <c r="D29" s="10">
-        <v>75</v>
-      </c>
-      <c r="E29" s="10">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="21.35" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" t="s" s="9">
-        <v>174</v>
-      </c>
-      <c r="C30" s="10">
-        <v>8</v>
-      </c>
-      <c r="D30" s="10">
-        <v>63</v>
-      </c>
-      <c r="E30" s="10">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="21.35" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" ht="21.35" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" t="s" s="11">
-        <v>175</v>
-      </c>
-      <c r="C32" s="20">
-        <f>COUNTIF(E2:E30,"=2")</f>
-        <v>3</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="8">
-        <f>AVERAGE(G2:G30)</f>
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="33" ht="21.35" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" t="s" s="9">
-        <v>176</v>
-      </c>
-      <c r="C33" s="20">
-        <f>COUNTIF(E2:E30,"=3")</f>
-        <v>15</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" ht="21.35" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" ht="21.35" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" t="s" s="22">
-        <v>177</v>
-      </c>
-      <c r="C35" s="20">
-        <f>COUNTIFS(E2:E30,"=2",F2:F30,"=AP")</f>
-        <v>2</v>
-      </c>
-      <c r="D35" s="23">
-        <f>C35/C32</f>
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" ht="21.35" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" ht="21.35" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" t="s" s="22">
-        <v>178</v>
-      </c>
-      <c r="C37" s="20">
-        <f>COUNTIFS(E2:E30,"=3",F2:F30,"=RP")</f>
-        <v>10</v>
-      </c>
-      <c r="D37" s="23">
-        <f>C37/C33</f>
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;11&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="9.05469" style="24" customWidth="1"/>
-    <col min="2" max="2" width="35.5859" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.05469" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.05469" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.05469" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.05469" style="24" customWidth="1"/>
-    <col min="7" max="256" width="9.05469" style="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" ht="21.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="9">
-        <v>179</v>
-      </c>
-      <c r="C2" s="10">
-        <v>43</v>
-      </c>
-      <c r="D2" s="10">
-        <v>97</v>
-      </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="21.35" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="11">
-        <v>180</v>
-      </c>
-      <c r="C3" s="12">
-        <v>85</v>
-      </c>
-      <c r="D3" s="12">
-        <v>352</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="21.35" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s" s="9">
-        <v>181</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>6</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="21.35" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s" s="6">
-        <v>182</v>
-      </c>
-      <c r="C5" s="7">
-        <v>41</v>
-      </c>
-      <c r="D5" s="7">
-        <v>137</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3</v>
-      </c>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" ht="21.35" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s" s="9">
-        <v>183</v>
-      </c>
-      <c r="C6" s="10">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10">
-        <v>93</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="21.35" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s" s="9">
-        <v>184</v>
-      </c>
-      <c r="C7" s="10">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10">
-        <v>100</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="21.35" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s" s="6">
-        <v>185</v>
-      </c>
-      <c r="C8" s="7">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7">
-        <v>157</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" ht="21.35" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="C9" s="7">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7">
-        <v>159</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3</v>
-      </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" ht="21.35" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s" s="6">
-        <v>187</v>
-      </c>
-      <c r="C10" s="7">
-        <v>63</v>
-      </c>
-      <c r="D10" s="7">
-        <v>208</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" ht="21.35" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s" s="9">
-        <v>188</v>
-      </c>
-      <c r="C11" s="10">
-        <v>24</v>
-      </c>
-      <c r="D11" s="10">
-        <v>88</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" ht="21.35" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s" s="9">
-        <v>189</v>
-      </c>
-      <c r="C12" s="10">
-        <v>14</v>
-      </c>
-      <c r="D12" s="10">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" ht="21.35" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s" s="6">
-        <v>190</v>
-      </c>
-      <c r="C13" s="7">
-        <v>57</v>
-      </c>
-      <c r="D13" s="7">
-        <v>143</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" ht="21.35" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s" s="6">
-        <v>191</v>
-      </c>
-      <c r="C14" s="7">
-        <v>68</v>
-      </c>
-      <c r="D14" s="7">
-        <v>190</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3</v>
-      </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" ht="21.35" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s" s="6">
-        <v>192</v>
-      </c>
-      <c r="C15" s="7">
-        <v>65</v>
-      </c>
-      <c r="D15" s="7">
-        <v>170</v>
-      </c>
-      <c r="E15" s="7">
-        <v>3</v>
-      </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" ht="21.35" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s" s="9">
-        <v>193</v>
-      </c>
-      <c r="C16" s="10">
-        <v>37</v>
-      </c>
-      <c r="D16" s="10">
-        <v>67</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="21.35" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s" s="6">
-        <v>194</v>
-      </c>
-      <c r="C17" s="7">
-        <v>52</v>
-      </c>
-      <c r="D17" s="7">
-        <v>199</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" ht="21.35" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s" s="6">
-        <v>195</v>
-      </c>
-      <c r="C18" s="7">
-        <v>42</v>
-      </c>
-      <c r="D18" s="7">
-        <v>177</v>
-      </c>
-      <c r="E18" s="7">
-        <v>3</v>
-      </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" ht="21.35" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s" s="6">
-        <v>196</v>
-      </c>
-      <c r="C19" s="7">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7">
-        <v>130</v>
-      </c>
-      <c r="E19" s="7">
-        <v>3</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" ht="21.35" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" t="s" s="6">
-        <v>197</v>
-      </c>
-      <c r="C20" s="7">
-        <v>34</v>
-      </c>
-      <c r="D20" s="7">
-        <v>171</v>
-      </c>
-      <c r="E20" s="7">
-        <v>3</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" ht="21.35" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="C21" s="10">
-        <v>24</v>
-      </c>
-      <c r="D21" s="10">
-        <v>72</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" ht="21.35" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" t="s" s="6">
-        <v>199</v>
-      </c>
-      <c r="C22" s="7">
-        <v>36</v>
-      </c>
-      <c r="D22" s="7">
-        <v>177</v>
-      </c>
-      <c r="E22" s="7">
-        <v>3</v>
-      </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" ht="21.35" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s" s="11">
-        <v>200</v>
-      </c>
-      <c r="C23" s="12">
-        <v>98</v>
-      </c>
-      <c r="D23" s="12">
-        <v>258</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="21.35" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" t="s" s="9">
-        <v>201</v>
-      </c>
-      <c r="C24" s="10">
-        <v>24</v>
-      </c>
-      <c r="D24" s="10">
-        <v>57</v>
-      </c>
-      <c r="E24" s="10">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="21.35" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s" s="9">
-        <v>202</v>
-      </c>
-      <c r="C25" s="10">
-        <v>34</v>
-      </c>
-      <c r="D25" s="10">
-        <v>96</v>
-      </c>
-      <c r="E25" s="10">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="21.35" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s" s="6">
-        <v>203</v>
-      </c>
-      <c r="C26" s="7">
-        <v>24</v>
-      </c>
-      <c r="D26" s="7">
-        <v>210</v>
-      </c>
-      <c r="E26" s="7">
-        <v>3</v>
-      </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" ht="21.35" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" t="s" s="6">
-        <v>204</v>
-      </c>
-      <c r="C27" s="7">
-        <v>43</v>
-      </c>
-      <c r="D27" s="7">
-        <v>142</v>
-      </c>
-      <c r="E27" s="7">
-        <v>3</v>
-      </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" ht="21.35" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" t="s" s="9">
-        <v>205</v>
-      </c>
-      <c r="C28" s="10">
-        <v>31</v>
-      </c>
-      <c r="D28" s="10">
-        <v>87</v>
-      </c>
-      <c r="E28" s="10">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" ht="21.35" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" t="s" s="9">
-        <v>206</v>
-      </c>
-      <c r="C29" s="10">
-        <v>24</v>
-      </c>
-      <c r="D29" s="10">
-        <v>78</v>
-      </c>
-      <c r="E29" s="10">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" ht="21.35" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" ht="21.35" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" t="s" s="11">
-        <v>207</v>
-      </c>
-      <c r="C31" s="20">
-        <f>COUNTIF(E2:E29,"=1")</f>
-        <v>2</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" ht="21.35" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" t="s" s="9">
-        <v>208</v>
-      </c>
-      <c r="C32" s="20">
-        <f>COUNTIF(E2:E29,"=2")</f>
-        <v>12</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" ht="21.35" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" ht="21.35" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" t="s" s="22">
-        <v>209</v>
-      </c>
-      <c r="C34" s="20">
-        <f>COUNTIFS(E2:E29,"=1",F2:F29,"=AP")</f>
-        <v>2</v>
-      </c>
-      <c r="D34" s="23">
-        <f>C34/C31</f>
-        <v>1</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" ht="21.35" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" ht="21.35" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" t="s" s="22">
-        <v>210</v>
-      </c>
-      <c r="C36" s="20">
-        <f>COUNTIFS(E2:E29,"=2",F2:F29,"=RP")</f>
-        <v>7</v>
-      </c>
-      <c r="D36" s="23">
-        <f>C36/C32</f>
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;11&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="9.05469" style="25" customWidth="1"/>
-    <col min="2" max="2" width="35.5859" style="25" customWidth="1"/>
-    <col min="3" max="3" width="9.05469" style="25" customWidth="1"/>
-    <col min="4" max="4" width="9.05469" style="25" customWidth="1"/>
-    <col min="5" max="5" width="9.05469" style="25" customWidth="1"/>
-    <col min="6" max="6" width="9.05469" style="25" customWidth="1"/>
-    <col min="7" max="256" width="9.05469" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" ht="21.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
-        <v>211</v>
-      </c>
-      <c r="C2" s="7">
-        <v>62</v>
-      </c>
-      <c r="D2" s="7">
-        <v>198</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" ht="21.35" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="9">
-        <v>212</v>
-      </c>
-      <c r="C3" s="10">
-        <v>13</v>
-      </c>
-      <c r="D3" s="10">
-        <v>46</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="21.35" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s" s="6">
-        <v>213</v>
-      </c>
-      <c r="C4" s="7">
-        <v>40</v>
-      </c>
-      <c r="D4" s="7">
-        <v>199</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" ht="21.35" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s" s="9">
-        <v>214</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="21.35" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s" s="6">
-        <v>215</v>
-      </c>
-      <c r="C6" s="7">
-        <v>59</v>
-      </c>
-      <c r="D6" s="7">
-        <v>187</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" ht="21.35" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s" s="6">
-        <v>216</v>
-      </c>
-      <c r="C7" s="7">
-        <v>58</v>
-      </c>
-      <c r="D7" s="7">
-        <v>155</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" ht="21.35" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s" s="26">
-        <v>217</v>
-      </c>
-      <c r="C8" s="27">
-        <v>109</v>
-      </c>
-      <c r="D8" s="27">
-        <v>345</v>
-      </c>
-      <c r="E8" s="27">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="21.35" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s" s="26">
-        <v>218</v>
-      </c>
-      <c r="C9" s="27">
-        <v>69</v>
-      </c>
-      <c r="D9" s="27">
-        <v>276</v>
-      </c>
-      <c r="E9" s="27">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="21.35" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s" s="9">
-        <v>219</v>
-      </c>
-      <c r="C10" s="10">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10">
-        <v>80</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="21.35" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s" s="6">
-        <v>220</v>
-      </c>
-      <c r="C11" s="7">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7">
-        <v>119</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" ht="21.35" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s" s="26">
-        <v>221</v>
-      </c>
-      <c r="C12" s="27">
-        <v>41</v>
-      </c>
-      <c r="D12" s="27">
-        <v>294</v>
-      </c>
-      <c r="E12" s="27">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="21.35" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s" s="6">
-        <v>222</v>
-      </c>
-      <c r="C13" s="7">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>116</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" ht="21.35" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s" s="26">
-        <v>223</v>
-      </c>
-      <c r="C14" s="27">
-        <v>80</v>
-      </c>
-      <c r="D14" s="27">
-        <v>278</v>
-      </c>
-      <c r="E14" s="27">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="21.35" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s" s="26">
-        <v>224</v>
-      </c>
-      <c r="C15" s="27">
-        <v>90</v>
-      </c>
-      <c r="D15" s="27">
-        <v>518</v>
-      </c>
-      <c r="E15" s="27">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="21.35" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s" s="9">
-        <v>225</v>
-      </c>
-      <c r="C16" s="10">
-        <v>21</v>
-      </c>
-      <c r="D16" s="10">
-        <v>105</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="21.35" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s" s="6">
-        <v>226</v>
-      </c>
-      <c r="C17" s="7">
-        <v>46</v>
-      </c>
-      <c r="D17" s="7">
-        <v>149</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" ht="21.35" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s" s="6">
-        <v>227</v>
-      </c>
-      <c r="C18" s="7">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7">
-        <v>134</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" ht="21.35" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s" s="6">
-        <v>228</v>
-      </c>
-      <c r="C19" s="7">
-        <v>44</v>
-      </c>
-      <c r="D19" s="7">
-        <v>107</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" ht="21.35" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" t="s" s="26">
-        <v>229</v>
-      </c>
-      <c r="C20" s="27">
-        <v>51</v>
-      </c>
-      <c r="D20" s="27">
-        <v>257</v>
-      </c>
-      <c r="E20" s="27">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="21.35" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" t="s" s="9">
-        <v>230</v>
-      </c>
-      <c r="C21" s="10">
-        <v>12</v>
-      </c>
-      <c r="D21" s="10">
-        <v>38</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" ht="21.35" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" t="s" s="6">
-        <v>231</v>
-      </c>
-      <c r="C22" s="7">
-        <v>43</v>
-      </c>
-      <c r="D22" s="7">
-        <v>165</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" ht="21.35" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s" s="6">
-        <v>232</v>
-      </c>
-      <c r="C23" s="7">
-        <v>57</v>
-      </c>
-      <c r="D23" s="7">
-        <v>157</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" ht="21.35" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" t="s" s="9">
-        <v>233</v>
-      </c>
-      <c r="C24" s="10">
-        <v>18</v>
-      </c>
-      <c r="D24" s="10">
-        <v>60</v>
-      </c>
-      <c r="E24" s="10">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="21.35" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s" s="6">
-        <v>234</v>
-      </c>
-      <c r="C25" s="7">
-        <v>39</v>
-      </c>
-      <c r="D25" s="7">
-        <v>127</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" ht="21.35" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s" s="6">
-        <v>235</v>
-      </c>
-      <c r="C26" s="7">
-        <v>56</v>
-      </c>
-      <c r="D26" s="7">
-        <v>228</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" ht="21.35" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" t="s" s="9">
-        <v>236</v>
-      </c>
-      <c r="C27" s="10">
-        <v>31</v>
-      </c>
-      <c r="D27" s="10">
-        <v>84</v>
-      </c>
-      <c r="E27" s="10">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" ht="21.35" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" t="s" s="6">
-        <v>237</v>
-      </c>
-      <c r="C28" s="7">
-        <v>27</v>
-      </c>
-      <c r="D28" s="7">
-        <v>138</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" ht="21.35" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" t="s" s="9">
-        <v>238</v>
-      </c>
-      <c r="C29" s="10">
-        <v>25</v>
-      </c>
-      <c r="D29" s="10">
-        <v>61</v>
-      </c>
-      <c r="E29" s="10">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" ht="21.35" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" t="s" s="9">
-        <v>239</v>
-      </c>
-      <c r="C30" s="10">
-        <v>26</v>
-      </c>
-      <c r="D30" s="10">
-        <v>79</v>
-      </c>
-      <c r="E30" s="10">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" ht="21.35" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" t="s" s="9">
-        <v>240</v>
-      </c>
-      <c r="C31" s="10">
-        <v>29</v>
-      </c>
-      <c r="D31" s="10">
-        <v>104</v>
-      </c>
-      <c r="E31" s="10">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" ht="21.35" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C32" s="10">
-        <v>24</v>
-      </c>
-      <c r="D32" s="10">
-        <v>47</v>
-      </c>
-      <c r="E32" s="10">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" ht="21.35" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" ht="21.35" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" t="s" s="11">
-        <v>242</v>
-      </c>
-      <c r="C34" s="20">
-        <f>COUNTIF(E2:E32,"=3")</f>
-        <v>6</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" ht="21.35" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" t="s" s="9">
-        <v>208</v>
-      </c>
-      <c r="C35" s="20">
-        <f>COUNTIF(E2:E32,"=2")</f>
-        <v>11</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" ht="21.35" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" ht="21.35" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" t="s" s="22">
-        <v>243</v>
-      </c>
-      <c r="C37" s="20">
-        <f>COUNTIFS(E2:E32,"=3",F2:F32,"=AP")</f>
-        <v>6</v>
-      </c>
-      <c r="D37" s="23">
-        <f>C37/C34</f>
-        <v>1</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" ht="21.35" customHeight="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" ht="21.35" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" t="s" s="22">
-        <v>210</v>
-      </c>
-      <c r="C39" s="20">
-        <f>COUNTIFS(E2:E32,"=2",F2:F32,"=RP")</f>
-        <v>9</v>
-      </c>
-      <c r="D39" s="23">
-        <f>C39/C35</f>
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;11&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="0.25" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="28" customWidth="1"/>
-    <col min="7" max="256" width="12.25" style="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="B3" s="13"/>
-      <c r="C3" t="s" s="29">
-        <v>245</v>
-      </c>
-      <c r="D3" t="s" s="29">
-        <v>246</v>
-      </c>
-      <c r="E3" t="s" s="29">
-        <v>247</v>
-      </c>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="31">
-        <v>1</v>
-      </c>
-      <c r="D4" s="31">
-        <f>'All courses'!E38</f>
-        <v>154</v>
-      </c>
-      <c r="E4" s="31">
-        <f>'All courses'!E40</f>
-        <v>22</v>
-      </c>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="33">
-        <v>22</v>
-      </c>
-      <c r="D5" s="34">
-        <f>#REF!</f>
-      </c>
-      <c r="E5" s="34">
-        <f>#REF!</f>
-      </c>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="31">
-        <v>28</v>
-      </c>
-      <c r="D6" s="35">
-        <f>#REF!</f>
-      </c>
-      <c r="E6" s="35">
-        <f>#REF!</f>
-      </c>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="33">
-        <v>38</v>
-      </c>
-      <c r="D7" s="34">
-        <f>#REF!</f>
-      </c>
-      <c r="E7" s="34">
-        <f>#REF!</f>
-      </c>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="B8" s="13"/>
-      <c r="C8" s="31">
-        <v>58</v>
-      </c>
-      <c r="D8" s="35">
-        <f>'ID = 58'!D35</f>
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E8" s="35">
-        <f>'ID = 58'!D37</f>
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F8" t="s" s="31">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="B9" s="13"/>
-      <c r="C9" s="33">
-        <v>67</v>
-      </c>
-      <c r="D9" s="34">
-        <f>'ID = 67'!D34</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="34">
-        <f>'ID = 67'!D36</f>
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="B10" s="13"/>
-      <c r="C10" s="31">
-        <v>80</v>
-      </c>
-      <c r="D10" s="35">
-        <f>'ID = 80'!D37</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="35">
-        <f>'ID = 80'!D39</f>
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="F10" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;11&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/util/Resultados - P-R.xlsx
+++ b/util/Resultados - P-R.xlsx
@@ -6,14 +6,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="2 grupos" sheetId="1" r:id="rId4"/>
-    <sheet name="3 grupos" sheetId="2" r:id="rId5"/>
+    <sheet name="2 groups" sheetId="1" r:id="rId4"/>
+    <sheet name="3 groups" sheetId="2" r:id="rId5"/>
+    <sheet name="Extra exams" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -728,6 +729,21 @@
   <si>
     <t>Tibério Júlio</t>
   </si>
+  <si>
+    <t>2 groups</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>3 groups</t>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +803,7 @@
       <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,6 +819,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -836,7 +858,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -894,6 +916,21 @@
     <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,6 +953,7 @@
       <rgbColor rgb="ffff2c21"/>
       <rgbColor rgb="ff63b2de"/>
       <rgbColor rgb="ff489bc9"/>
+      <rgbColor rgb="fff4f4f4"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -23993,4 +24031,180 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;11&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="0.25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="19" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="19" customWidth="1"/>
+    <col min="7" max="256" width="12.25" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="2" customHeight="1"/>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="B2" t="s" s="3">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>240</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>241</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" ht="20.55" customHeight="1">
+      <c r="B3" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="C3" s="20">
+        <f>COUNTIF('2 groups'!P2:P223,"=YES")</f>
+        <v>31</v>
+      </c>
+      <c r="D3" s="20">
+        <f>COUNTIF('2 groups'!O2:O223,"=YES")</f>
+        <v>19</v>
+      </c>
+      <c r="E3" s="20">
+        <f>C3+D3</f>
+        <v>50</v>
+      </c>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="B4" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="C4" s="22">
+        <f>COUNTIF('2 groups'!P2:P223,"=YES nn")</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <f>C4+D4</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="B5" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20">
+        <f>COUNTIF('2 groups'!P2:P223,"=NO")</f>
+        <v>18</v>
+      </c>
+      <c r="D5" s="20">
+        <f>COUNTIF('2 groups'!O2:O223,"=NO")</f>
+        <v>34</v>
+      </c>
+      <c r="E5" s="20">
+        <f>C5+D5</f>
+        <v>52</v>
+      </c>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="B6" s="12"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="B7" t="s" s="5">
+        <v>242</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="B8" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="C8" s="22">
+        <f>COUNTIF('3 groups'!Q2:Q223,"=YES")</f>
+        <v>8</v>
+      </c>
+      <c r="D8" s="22">
+        <f>COUNTIF('3 groups'!P2:P223,"=YES")</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="22">
+        <f>C8+D8</f>
+        <v>14</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="B9" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="C9" s="20">
+        <f>COUNTIF('3 groups'!Q2:Q223,"=YES nn")</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <f>C9+D9</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="B10" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="C10" s="22">
+        <f>COUNTIF('3 groups'!Q2:Q223,"=NO")</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="22">
+        <f>COUNTIF('3 groups'!P2:P223,"=NO")</f>
+        <v>12</v>
+      </c>
+      <c r="E10" s="22">
+        <f>C10+D10</f>
+        <v>20</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;11&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>